--- a/M2/D2/ESERCIZIO M2 2.xlsx
+++ b/M2/D2/ESERCIZIO M2 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5921c20450487a2e/Documents/Compiti-Epicode/M2/D2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{85CB66D6-BFD1-4279-B3E3-510E8245953B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DDD8391-8035-4B43-B517-2431EF4CB0CA}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{85CB66D6-BFD1-4279-B3E3-510E8245953B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59B25E9-061C-4A80-AE08-CF55CD428DF0}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -2218,7 +2218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2527,36 +2527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -2585,7 +2555,7 @@
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2645,12 +2615,9 @@
     <xf numFmtId="168" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2658,6 +2625,8 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="8" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2679,9 +2648,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Colore 1" xfId="7" builtinId="29"/>
@@ -2698,7 +2665,20 @@
     <cellStyle name="Valuta 2" xfId="9" xr:uid="{207091F5-721C-455F-B370-D6B4AD03B231}"/>
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-[$€-410]\ * #,##0.00_-;\-[$€-410]\ * #,##0.00_-;_-[$€-410]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2746,90 +2726,6 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -2884,6 +2780,42 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -3453,6 +3385,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -6206,13 +6145,17 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6519BA90-73C7-4C17-BB64-5E1776A6710A}" name="Tabella2" displayName="Tabella2" ref="B3:D10" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6519BA90-73C7-4C17-BB64-5E1776A6710A}" name="Tabella2" displayName="Tabella2" ref="B3:D10" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome " dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome " dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Punteggio"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ESITO" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ESITO" dataDxfId="14">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Tabella2[[#This Row],[Punteggio]],Tabella1[voto],Tabella1[esito])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6221,25 +6164,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81E7B1C8-8B2B-4334-831C-484A3B98F9FA}" name="Tabella1" displayName="Tabella1" ref="F2:H6" totalsRowShown="0" tableBorderDxfId="11" headerRowCellStyle="Normale 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81E7B1C8-8B2B-4334-831C-484A3B98F9FA}" name="Tabella1" displayName="Tabella1" ref="F2:H6" totalsRowShown="0" tableBorderDxfId="13" headerRowCellStyle="Normale 2">
   <autoFilter ref="F2:H6" xr:uid="{81E7B1C8-8B2B-4334-831C-484A3B98F9FA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{75405E9A-0122-419A-9974-05D4077049A8}" name="voto" dataDxfId="10" dataCellStyle="Normale 2"/>
+    <tableColumn id="1" xr3:uid="{75405E9A-0122-419A-9974-05D4077049A8}" name="voto" dataDxfId="12" dataCellStyle="Normale 2"/>
     <tableColumn id="2" xr3:uid="{8264FE50-96C4-4E92-B890-BDE4C779C82A}" name="esito"/>
-    <tableColumn id="3" xr3:uid="{EB89ADA2-DE9E-4EC4-99D4-4E6CEEF80434}" name="Colonna1" dataDxfId="9" dataCellStyle="Normale 2"/>
+    <tableColumn id="3" xr3:uid="{EB89ADA2-DE9E-4EC4-99D4-4E6CEEF80434}" name="Colonna1" dataDxfId="11" dataCellStyle="Normale 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{854F3F22-7C20-4EC8-9586-0FC61EEE12AF}" name="spesemese" displayName="spesemese" ref="C3:D16" totalsRowCount="1" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{854F3F22-7C20-4EC8-9586-0FC61EEE12AF}" name="spesemese" displayName="spesemese" ref="C3:D16" totalsRowCount="1" headerRowDxfId="10">
   <autoFilter ref="C3:D15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="MESE" totalsRowLabel="Totale" dataDxfId="14" totalsRowCellStyle="Normale 2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SPESA" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" totalsRowCellStyle="Normale 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="MESE" totalsRowLabel="Totale" dataDxfId="9" totalsRowCellStyle="Normale 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SPESA" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7" totalsRowCellStyle="Normale 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6CD6C1F1-6BB4-42BF-88CB-7E3D8A885B84}" name="Tabella4" displayName="Tabella4" ref="A3:E26" totalsRowShown="0" headerRowBorderDxfId="2">
+  <autoFilter ref="A3:E26" xr:uid="{6CD6C1F1-6BB4-42BF-88CB-7E3D8A885B84}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{09605C32-4BE3-4BFF-B93D-E30E2E23D0AE}" name="mese"/>
+    <tableColumn id="2" xr3:uid="{BC48939A-ACBC-4483-833A-FDD45F7046AE}" name="data" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A874FC37-84DF-4189-B9C5-1912411BA0F1}" name="tipo"/>
+    <tableColumn id="4" xr3:uid="{387EC8F9-B868-444B-AA0E-959A13E9F9A7}" name="descrizione"/>
+    <tableColumn id="5" xr3:uid="{04EBBC61-C6BB-4964-803E-93F0E8FF76DC}" name="importo" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6532,9 +6489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64CFBE5-9F9D-4F9A-8F99-5524B5637A72}">
   <dimension ref="A1:G340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A340" sqref="A340"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -6550,24 +6507,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="84.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>651</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>650</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:7" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
@@ -6603,12 +6560,12 @@
         <v>281000</v>
       </c>
       <c r="D5" s="26">
-        <f>C5*IVATOT</f>
+        <f t="shared" ref="D5:D68" si="0">C5*IVATOT</f>
         <v>56200</v>
       </c>
       <c r="E5" s="10" t="str">
-        <f>A5&amp;"---"&amp;C5</f>
-        <v>MON.SVGA 0,28 14" AOC 4VLR---281000</v>
+        <f>A5&amp;"---"&amp;DOLLAR(C5)</f>
+        <v>MON.SVGA 0,28 14" AOC 4VLR---281.000,00 €</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -6622,12 +6579,12 @@
         <v>323000</v>
       </c>
       <c r="D6" s="26">
-        <f>C6*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>64600</v>
       </c>
       <c r="E6" s="10" t="str">
-        <f t="shared" ref="E6:E69" si="0">A6&amp;"---"&amp;C6</f>
-        <v>MON.SVGA 0,28 15" AOC 5VLR---323000</v>
+        <f t="shared" ref="E6:E69" si="1">A6&amp;"---"&amp;DOLLAR(C6)</f>
+        <v>MON.SVGA 0,28 15" AOC 5VLR---323.000,00 €</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -6641,12 +6598,12 @@
         <v>344000</v>
       </c>
       <c r="D7" s="26">
-        <f>C7*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>68800</v>
       </c>
       <c r="E7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON.SVGA 0,28 15" AOC 5NLR OSD---344000</v>
+        <f t="shared" si="1"/>
+        <v>MON.SVGA 0,28 15" AOC 5NLR OSD---344.000,00 €</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -6660,12 +6617,12 @@
         <v>361000</v>
       </c>
       <c r="D8" s="26">
-        <f>C8*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>72200</v>
       </c>
       <c r="E8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON.SVGA 0,28 15" AOC 5GLR+ OSD---361000</v>
+        <f t="shared" si="1"/>
+        <v>MON.SVGA 0,28 15" AOC 5GLR+ OSD---361.000,00 €</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -6679,12 +6636,12 @@
         <v>521000</v>
       </c>
       <c r="D9" s="26">
-        <f>C9*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>104200</v>
       </c>
       <c r="E9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON. 15" 0.23 CM500ET HITACHI---521000</v>
+        <f t="shared" si="1"/>
+        <v>MON. 15" 0.23 CM500ET HITACHI---521.000,00 €</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -6698,12 +6655,12 @@
         <v>527000</v>
       </c>
       <c r="D10" s="26">
-        <f>C10*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>105400</v>
       </c>
       <c r="E10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON. 15" 0.28 A500 NEC---527000</v>
+        <f t="shared" si="1"/>
+        <v>MON. 15" 0.28 A500 NEC---527.000,00 €</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -6717,12 +6674,12 @@
         <v>626000</v>
       </c>
       <c r="D11" s="26">
-        <f>C11*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>125200</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON.SVGA 0,28 17" AOC 7VLR---626000</v>
+        <f t="shared" si="1"/>
+        <v>MON.SVGA 0,28 17" AOC 7VLR---626.000,00 €</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -6736,12 +6693,12 @@
         <v>656000</v>
       </c>
       <c r="D12" s="26">
-        <f>C12*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>131200</v>
       </c>
       <c r="E12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON. 15" 0.25 E500 NEC, Croma Clear---656000</v>
+        <f t="shared" si="1"/>
+        <v>MON. 15" 0.25 E500 NEC, Croma Clear---656.000,00 €</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -6755,12 +6712,12 @@
         <v>666000</v>
       </c>
       <c r="D13" s="26">
-        <f>C13*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>133200</v>
       </c>
       <c r="E13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON.SVGA 0,26 17" AOC 7GLR OSD---666000</v>
+        <f t="shared" si="1"/>
+        <v>MON.SVGA 0,26 17" AOC 7GLR OSD---666.000,00 €</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -6774,12 +6731,12 @@
         <v>882000</v>
       </c>
       <c r="D14" s="26">
-        <f>C14*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>176400</v>
       </c>
       <c r="E14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON. 17" 0.28 A700 NEC---882000</v>
+        <f t="shared" si="1"/>
+        <v>MON. 17" 0.28 A700 NEC---882.000,00 €</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -6793,12 +6750,12 @@
         <v>1108000</v>
       </c>
       <c r="D15" s="26">
-        <f>C15*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>221600</v>
       </c>
       <c r="E15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON. 17" 0.21 CM630ET HITACHI---1108000</v>
+        <f t="shared" si="1"/>
+        <v>MON. 17" 0.21 CM630ET HITACHI---1.108.000,00 €</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -6812,12 +6769,12 @@
         <v>1316000</v>
       </c>
       <c r="D16" s="26">
-        <f>C16*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>263200</v>
       </c>
       <c r="E16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON. 17" 0.25 P750 NEC, Croma Clear---1316000</v>
+        <f t="shared" si="1"/>
+        <v>MON. 17" 0.25 P750 NEC, Croma Clear---1.316.000,00 €</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -6831,12 +6788,12 @@
         <v>1594000</v>
       </c>
       <c r="D17" s="26">
-        <f>C17*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>318800</v>
       </c>
       <c r="E17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON. 19" 0.22 CM751ET HITACHI---1594000</v>
+        <f t="shared" si="1"/>
+        <v>MON. 19" 0.22 CM751ET HITACHI---1.594.000,00 €</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -6850,12 +6807,12 @@
         <v>2719000</v>
       </c>
       <c r="D18" s="26">
-        <f>C18*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>543800</v>
       </c>
       <c r="E18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON. 21" 0.21 CM802ETM HITACHI---2719000</v>
+        <f t="shared" si="1"/>
+        <v>MON. 21" 0.21 CM802ETM HITACHI---2.719.000,00 €</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -6864,12 +6821,12 @@
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="26">
-        <f>C19*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MONITOR  LCD---</v>
+        <f t="shared" si="1"/>
+        <v>MONITOR  LCD---0,00 €</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -6883,12 +6840,12 @@
         <v>4092000</v>
       </c>
       <c r="D20" s="26">
-        <f>C20*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>818400</v>
       </c>
       <c r="E20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON. 14" LCD 0.28 LCD400V NEC---4092000</v>
+        <f t="shared" si="1"/>
+        <v>MON. 14" LCD 0.28 LCD400V NEC---4.092.000,00 €</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -6902,12 +6859,12 @@
         <v>13859000</v>
       </c>
       <c r="D21" s="26">
-        <f>C21*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>2771800</v>
       </c>
       <c r="E21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MON. 20" LCD 0.31 LCD2000sf NEC---13859000</v>
+        <f t="shared" si="1"/>
+        <v>MON. 20" LCD 0.31 LCD2000sf NEC---13.859.000,00 €</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -6916,12 +6873,12 @@
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="26">
-        <f>C22*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SCHEDE MADRI---</v>
+        <f t="shared" si="1"/>
+        <v>SCHEDE MADRI---0,00 €</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -6935,12 +6892,12 @@
         <v>167000</v>
       </c>
       <c r="D23" s="26">
-        <f>C23*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>33400</v>
       </c>
       <c r="E23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS SP97-V SVGA SHARE MEMORY---167000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS SP97-V SVGA SHARE MEMORY---167.000,00 €</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -6954,12 +6911,12 @@
         <v>202000</v>
       </c>
       <c r="D24" s="26">
-        <f>C24*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>40400</v>
       </c>
       <c r="E24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS TXP4---202000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS TXP4---202.000,00 €</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -6973,12 +6930,12 @@
         <v>203000</v>
       </c>
       <c r="D25" s="26">
-        <f>C25*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>40600</v>
       </c>
       <c r="E25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS SP98AGP-X ATX---203000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS SP98AGP-X ATX---203.000,00 €</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -6992,12 +6949,12 @@
         <v>234000</v>
       </c>
       <c r="D26" s="26">
-        <f>C26*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>46800</v>
       </c>
       <c r="E26" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS TX-97 - E ---234000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS TX-97 - E ---234.000,00 €</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -7011,12 +6968,12 @@
         <v>252000</v>
       </c>
       <c r="D27" s="26">
-        <f>C27*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>50400</v>
       </c>
       <c r="E27" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS TX-97 ---252000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS TX-97 ---252.000,00 €</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -7030,12 +6987,12 @@
         <v>259000</v>
       </c>
       <c r="D28" s="26">
-        <f>C28*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>51800</v>
       </c>
       <c r="E28" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS TX-97 - XE ATX NO AUDIO---259000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS TX-97 - XE ATX NO AUDIO---259.000,00 €</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -7049,12 +7006,12 @@
         <v>269000</v>
       </c>
       <c r="D29" s="26">
-        <f>C29*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>53800</v>
       </c>
       <c r="E29" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS P2L97-B---269000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS P2L97-B---269.000,00 €</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -7068,12 +7025,12 @@
         <v>271000</v>
       </c>
       <c r="D30" s="26">
-        <f>C30*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>54200</v>
       </c>
       <c r="E30" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS  P55T2P4 430HX 512K P5---271000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS  P55T2P4 430HX 512K P5---271.000,00 €</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -7087,12 +7044,12 @@
         <v>292000</v>
       </c>
       <c r="D31" s="26">
-        <f>C31*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>58400</v>
       </c>
       <c r="E31" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS P2L97 ATX---292000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS P2L97 ATX---292.000,00 €</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -7106,12 +7063,12 @@
         <v>293000</v>
       </c>
       <c r="D32" s="26">
-        <f>C32*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>58600</v>
       </c>
       <c r="E32" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS XP55T2P4 512K ATX P5---293000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS XP55T2P4 512K ATX P5---293.000,00 €</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -7125,12 +7082,12 @@
         <v>307000</v>
       </c>
       <c r="D33" s="26">
-        <f>C33*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>61400</v>
       </c>
       <c r="E33" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS TX-97 -XE ATX -CREATIVE VIBRA16---307000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS TX-97 -XE ATX -CREATIVE VIBRA16---307.000,00 €</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -7144,12 +7101,12 @@
         <v>440000</v>
       </c>
       <c r="D34" s="26">
-        <f>C34*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>88000</v>
       </c>
       <c r="E34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS P2L97-A ATX+VGA AGP 4MB---440000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS P2L97-A ATX+VGA AGP 4MB---440.000,00 €</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -7163,12 +7120,12 @@
         <v>487000</v>
       </c>
       <c r="D35" s="26">
-        <f>C35*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>97400</v>
       </c>
       <c r="E35" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS P2L97-S ADAPTEC ATX---487000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS P2L97-S ADAPTEC ATX---487.000,00 €</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -7182,12 +7139,12 @@
         <v>566000</v>
       </c>
       <c r="D36" s="26">
-        <f>C36*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>113200</v>
       </c>
       <c r="E36" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS P65UP5+P55T2D 512K DUAL P5---566000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS P65UP5+P55T2D 512K DUAL P5---566.000,00 €</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -7201,12 +7158,12 @@
         <v>802000</v>
       </c>
       <c r="D37" s="26">
-        <f>C37*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>160400</v>
       </c>
       <c r="E37" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS P2L97-DS DUAL P II---802000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS P2L97-DS DUAL P II---802.000,00 €</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -7220,12 +7177,12 @@
         <v>1579000</v>
       </c>
       <c r="D38" s="26">
-        <f>C38*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>315800</v>
       </c>
       <c r="E38" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M/B ASUS P65UP8+PKND DUAL PII---1579000</v>
+        <f t="shared" si="1"/>
+        <v>M/B ASUS P65UP8+PKND DUAL PII---1.579.000,00 €</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -7234,12 +7191,12 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="26">
-        <f>C39*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SCHEDE VIDEO---</v>
+        <f t="shared" si="1"/>
+        <v>SCHEDE VIDEO---0,00 €</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -7253,12 +7210,12 @@
         <v>70000</v>
       </c>
       <c r="D40" s="26">
-        <f>C40*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>14000</v>
       </c>
       <c r="E40" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SVGA S3 3D PRO VIRGE 2MB---70000</v>
+        <f t="shared" si="1"/>
+        <v>SVGA S3 3D PRO VIRGE 2MB---70.000,00 €</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -7272,12 +7229,12 @@
         <v>104000</v>
       </c>
       <c r="D41" s="26">
-        <f>C41*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>20800</v>
       </c>
       <c r="E41" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>CREATIVE ECLIPSE 4MB---104000</v>
+        <f t="shared" si="1"/>
+        <v>CREATIVE ECLIPSE 4MB---104.000,00 €</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -7291,12 +7248,12 @@
         <v>127000</v>
       </c>
       <c r="D42" s="26">
-        <f>C42*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>25400</v>
       </c>
       <c r="E42" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>ADD-ON MATROX m3D 4MB---127000</v>
+        <f t="shared" si="1"/>
+        <v>ADD-ON MATROX m3D 4MB---127.000,00 €</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -7310,12 +7267,12 @@
         <v>162000</v>
       </c>
       <c r="D43" s="26">
-        <f>C43*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>32400</v>
       </c>
       <c r="E43" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>ASUS 3DP-V264GT2 4MB TV-OUT---162000</v>
+        <f t="shared" si="1"/>
+        <v>ASUS 3DP-V264GT2 4MB TV-OUT---162.000,00 €</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -7329,12 +7286,12 @@
         <v>179000</v>
       </c>
       <c r="D44" s="26">
-        <f>C44*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>35800</v>
       </c>
       <c r="E44" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SVGA MYSTIQUE 220 "BULK" 4MB---179000</v>
+        <f t="shared" si="1"/>
+        <v>SVGA MYSTIQUE 220 "BULK" 4MB---179.000,00 €</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -7348,12 +7305,12 @@
         <v>186000</v>
       </c>
       <c r="D45" s="26">
-        <f>C45*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>37200</v>
       </c>
       <c r="E45" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>ASUS 3DP-V385GX2 4MB TV-OUT ---186000</v>
+        <f t="shared" si="1"/>
+        <v>ASUS 3DP-V385GX2 4MB TV-OUT ---186.000,00 €</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -7367,12 +7324,12 @@
         <v>186000</v>
       </c>
       <c r="D46" s="26">
-        <f>C46*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>37200</v>
       </c>
       <c r="E46" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>ASUS V385GX2 AGP 4MB TV-OUT---186000</v>
+        <f t="shared" si="1"/>
+        <v>ASUS V385GX2 AGP 4MB TV-OUT---186.000,00 €</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -7386,12 +7343,12 @@
         <v>203000</v>
       </c>
       <c r="D47" s="26">
-        <f>C47*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>40600</v>
       </c>
       <c r="E47" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>CREATIVE GRAPHIC EXXTREME 4MB---203000</v>
+        <f t="shared" si="1"/>
+        <v>CREATIVE GRAPHIC EXXTREME 4MB---203.000,00 €</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -7405,12 +7362,12 @@
         <v>212000</v>
       </c>
       <c r="D48" s="26">
-        <f>C48*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>42400</v>
       </c>
       <c r="E48" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SVGA MYSTIQUE 220  4MB---212000</v>
+        <f t="shared" si="1"/>
+        <v>SVGA MYSTIQUE 220  4MB---212.000,00 €</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -7424,12 +7381,12 @@
         <v>222000</v>
       </c>
       <c r="D49" s="26">
-        <f>C49*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>44400</v>
       </c>
       <c r="E49" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SVGA ACC. 3D/FX VOODO RUSH 4MB---222000</v>
+        <f t="shared" si="1"/>
+        <v>SVGA ACC. 3D/FX VOODO RUSH 4MB---222.000,00 €</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -7443,12 +7400,12 @@
         <v>245000</v>
       </c>
       <c r="D50" s="26">
-        <f>C50*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>49000</v>
       </c>
       <c r="E50" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SVGA ACC. 3D/FX VOODO RUSH 6MB---245000</v>
+        <f t="shared" si="1"/>
+        <v>SVGA ACC. 3D/FX VOODO RUSH 6MB---245.000,00 €</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -7462,12 +7419,12 @@
         <v>251000</v>
       </c>
       <c r="D51" s="26">
-        <f>C51*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>50200</v>
       </c>
       <c r="E51" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>RAINBOW R. TV---251000</v>
+        <f t="shared" si="1"/>
+        <v>RAINBOW R. TV---251.000,00 €</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -7481,12 +7438,12 @@
         <v>257000</v>
       </c>
       <c r="D52" s="26">
-        <f>C52*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>51400</v>
       </c>
       <c r="E52" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>ASUS 3D EXPLORER AGP 4MB TV-OUT---257000</v>
+        <f t="shared" si="1"/>
+        <v>ASUS 3D EXPLORER AGP 4MB TV-OUT---257.000,00 €</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -7500,12 +7457,12 @@
         <v>269000</v>
       </c>
       <c r="D53" s="26">
-        <f>C53*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>53800</v>
       </c>
       <c r="E53" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>ASUS 3D EXPLORER PCI 4MB TV-OUT---269000</v>
+        <f t="shared" si="1"/>
+        <v>ASUS 3D EXPLORER PCI 4MB TV-OUT---269.000,00 €</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -7519,12 +7476,12 @@
         <v>314000</v>
       </c>
       <c r="D54" s="26">
-        <f>C54*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>62800</v>
       </c>
       <c r="E54" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SVGA MILLENNIUM II 4MB "BULK"---314000</v>
+        <f t="shared" si="1"/>
+        <v>SVGA MILLENNIUM II 4MB "BULK"---314.000,00 €</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -7538,12 +7495,12 @@
         <v>325000</v>
       </c>
       <c r="D55" s="26">
-        <f>C55*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>65000</v>
       </c>
       <c r="E55" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SVGA MILLENNIUM II 4MB AGP---325000</v>
+        <f t="shared" si="1"/>
+        <v>SVGA MILLENNIUM II 4MB AGP---325.000,00 €</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -7557,12 +7514,12 @@
         <v>347000</v>
       </c>
       <c r="D56" s="26">
-        <f>C56*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>69400</v>
       </c>
       <c r="E56" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>RAINBOW R. STUDIO---347000</v>
+        <f t="shared" si="1"/>
+        <v>RAINBOW R. STUDIO---347.000,00 €</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -7576,12 +7533,12 @@
         <v>369000</v>
       </c>
       <c r="D57" s="26">
-        <f>C57*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>73800</v>
       </c>
       <c r="E57" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SVGA MILLENNIUM II 4MB---369000</v>
+        <f t="shared" si="1"/>
+        <v>SVGA MILLENNIUM II 4MB---369.000,00 €</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -7595,12 +7552,12 @@
         <v>402000</v>
       </c>
       <c r="D58" s="26">
-        <f>C58*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>80400</v>
       </c>
       <c r="E58" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>CREATIVE VOODO-2 8MB Add-on---402000</v>
+        <f t="shared" si="1"/>
+        <v>CREATIVE VOODO-2 8MB Add-on---402.000,00 €</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -7614,12 +7571,12 @@
         <v>471000</v>
       </c>
       <c r="D59" s="26">
-        <f>C59*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>94200</v>
       </c>
       <c r="E59" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SVGA MILLENNIUM II 8MB "BULK"---471000</v>
+        <f t="shared" si="1"/>
+        <v>SVGA MILLENNIUM II 8MB "BULK"---471.000,00 €</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -7633,12 +7590,12 @@
         <v>476000</v>
       </c>
       <c r="D60" s="26">
-        <f>C60*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>95200</v>
       </c>
       <c r="E60" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SVGA MILLENNIUM II 8MB AGP---476000</v>
+        <f t="shared" si="1"/>
+        <v>SVGA MILLENNIUM II 8MB AGP---476.000,00 €</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -7652,12 +7609,12 @@
         <v>492000</v>
       </c>
       <c r="D61" s="26">
-        <f>C61*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>98400</v>
       </c>
       <c r="E61" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>CREATIVE VOODO-2 12MB Add-on---492000</v>
+        <f t="shared" si="1"/>
+        <v>CREATIVE VOODO-2 12MB Add-on---492.000,00 €</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -7671,12 +7628,12 @@
         <v>531000</v>
       </c>
       <c r="D62" s="26">
-        <f>C62*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>106200</v>
       </c>
       <c r="E62" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>VIDEO &amp; GRAPHIC KIT---531000</v>
+        <f t="shared" si="1"/>
+        <v>VIDEO &amp; GRAPHIC KIT---531.000,00 €</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -7690,12 +7647,12 @@
         <v>552000</v>
       </c>
       <c r="D63" s="26">
-        <f>C63*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>110400</v>
       </c>
       <c r="E63" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SVGA MILLENNIUM II 8MB---552000</v>
+        <f t="shared" si="1"/>
+        <v>SVGA MILLENNIUM II 8MB---552.000,00 €</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -7709,12 +7666,12 @@
         <v>1487000</v>
       </c>
       <c r="D64" s="26">
-        <f>C64*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>297400</v>
       </c>
       <c r="E64" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>ASUS 3DP- V500TX 16MB Work.Prof.3d---1487000</v>
+        <f t="shared" si="1"/>
+        <v>ASUS 3DP- V500TX 16MB Work.Prof.3d---1.487.000,00 €</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -7723,12 +7680,12 @@
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="26">
-        <f>C65*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SCHEDE I/O---</v>
+        <f t="shared" si="1"/>
+        <v>SCHEDE I/O---0,00 €</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -7742,12 +7699,12 @@
         <v>101000</v>
       </c>
       <c r="D66" s="26">
-        <f>C66*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>20200</v>
       </c>
       <c r="E66" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Contr. PCI SCSI---101000</v>
+        <f t="shared" si="1"/>
+        <v>Contr. PCI SCSI---101.000,00 €</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -7761,12 +7718,12 @@
         <v>38000</v>
       </c>
       <c r="D67" s="26">
-        <f>C67*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>7600</v>
       </c>
       <c r="E67" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Contr. PCI EIDE---38000</v>
+        <f t="shared" si="1"/>
+        <v>Contr. PCI EIDE---38.000,00 €</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -7780,12 +7737,12 @@
         <v>137000</v>
       </c>
       <c r="D68" s="26">
-        <f>C68*IVATOT</f>
+        <f t="shared" si="0"/>
         <v>27400</v>
       </c>
       <c r="E68" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Contr. PCI SC200 SCSI-2---137000</v>
+        <f t="shared" si="1"/>
+        <v>Contr. PCI SC200 SCSI-2---137.000,00 €</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -7799,12 +7756,12 @@
         <v>222000</v>
       </c>
       <c r="D69" s="26">
-        <f>C69*IVATOT</f>
+        <f t="shared" ref="D69:D132" si="2">C69*IVATOT</f>
         <v>44400</v>
       </c>
       <c r="E69" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Contr. PCI SC875 Wide SCSI, SCSI-2---222000</v>
+        <f t="shared" si="1"/>
+        <v>Contr. PCI SC875 Wide SCSI, SCSI-2---222.000,00 €</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -7818,12 +7775,12 @@
         <v>501000</v>
       </c>
       <c r="D70" s="26">
-        <f>C70*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>100200</v>
       </c>
       <c r="E70" s="10" t="str">
-        <f t="shared" ref="E70:E133" si="1">A70&amp;"---"&amp;C70</f>
-        <v>Contr. PCI AHA 2940AU SCSI-2---501000</v>
+        <f t="shared" ref="E70:E133" si="3">A70&amp;"---"&amp;DOLLAR(C70)</f>
+        <v>Contr. PCI AHA 2940AU SCSI-2---501.000,00 €</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -7837,12 +7794,12 @@
         <v>428000</v>
       </c>
       <c r="D71" s="26">
-        <f>C71*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>85600</v>
       </c>
       <c r="E71" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Contr. PCI AHA 2940UW Wide SCSI OEM---428000</v>
+        <f t="shared" si="3"/>
+        <v>Contr. PCI AHA 2940UW Wide SCSI OEM---428.000,00 €</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -7856,12 +7813,12 @@
         <v>561000</v>
       </c>
       <c r="D72" s="26">
-        <f>C72*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>112200</v>
       </c>
       <c r="E72" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Contr. PCI AHA 2940UW Wide SCSI---561000</v>
+        <f t="shared" si="3"/>
+        <v>Contr. PCI AHA 2940UW Wide SCSI---561.000,00 €</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -7875,12 +7832,12 @@
         <v>1578000</v>
       </c>
       <c r="D73" s="26">
-        <f>C73*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>315600</v>
       </c>
       <c r="E73" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Contr.PCI DA2100 Dual Wide SCSI---1578000</v>
+        <f t="shared" si="3"/>
+        <v>Contr.PCI DA2100 Dual Wide SCSI---1.578.000,00 €</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -7894,12 +7851,12 @@
         <v>34000</v>
       </c>
       <c r="D74" s="26">
-        <f>C74*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>6800</v>
       </c>
       <c r="E74" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Scheda 2 porte seriali, 1 porta parallela---34000</v>
+        <f t="shared" si="3"/>
+        <v>Scheda 2 porte seriali, 1 porta parallela---34.000,00 €</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -7913,12 +7870,12 @@
         <v>20000</v>
       </c>
       <c r="D75" s="26">
-        <f>C75*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="E75" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Scheda singola seriale---20000</v>
+        <f t="shared" si="3"/>
+        <v>Scheda singola seriale---20.000,00 €</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -7932,12 +7889,12 @@
         <v>23000</v>
       </c>
       <c r="D76" s="26">
-        <f>C76*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>4600</v>
       </c>
       <c r="E76" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Scheda doppia seriale---23000</v>
+        <f t="shared" si="3"/>
+        <v>Scheda doppia seriale---23.000,00 €</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -7948,12 +7905,12 @@
         <v>98000</v>
       </c>
       <c r="D77" s="26">
-        <f>C77*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>19600</v>
       </c>
       <c r="E77" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Scheda 4 porte seriali---98000</v>
+        <f t="shared" si="3"/>
+        <v>Scheda 4 porte seriali---98.000,00 €</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -7964,12 +7921,12 @@
         <v>251000</v>
       </c>
       <c r="D78" s="26">
-        <f>C78*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>50200</v>
       </c>
       <c r="E78" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Scheda 8 porte seriali---251000</v>
+        <f t="shared" si="3"/>
+        <v>Scheda 8 porte seriali---251.000,00 €</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -7980,12 +7937,12 @@
         <v>15000</v>
       </c>
       <c r="D79" s="26">
-        <f>C79*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="E79" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Scheda singola parallela---15000</v>
+        <f t="shared" si="3"/>
+        <v>Scheda singola parallela---15.000,00 €</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -7996,12 +7953,12 @@
         <v>14000</v>
       </c>
       <c r="D80" s="26">
-        <f>C80*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>2800</v>
       </c>
       <c r="E80" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Scheda 2 porte joystick---14000</v>
+        <f t="shared" si="3"/>
+        <v>Scheda 2 porte joystick---14.000,00 €</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -8010,12 +7967,12 @@
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="26">
-        <f>C81*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E81" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>HARD DISK---</v>
+        <f t="shared" si="3"/>
+        <v>HARD DISK---0,00 €</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -8029,12 +7986,12 @@
         <v>399000</v>
       </c>
       <c r="D82" s="26">
-        <f>C82*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>79800</v>
       </c>
       <c r="E82" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>HARD DISK 2.5"  2,1GB U.Dma---399000</v>
+        <f t="shared" si="3"/>
+        <v>HARD DISK 2.5"  2,1GB U.Dma---399.000,00 €</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -8048,12 +8005,12 @@
         <v>259000</v>
       </c>
       <c r="D83" s="26">
-        <f>C83*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>51800</v>
       </c>
       <c r="E83" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>HD 2,1 GB Ultra DMA 5400rpm---259000</v>
+        <f t="shared" si="3"/>
+        <v>HD 2,1 GB Ultra DMA 5400rpm---259.000,00 €</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -8067,12 +8024,12 @@
         <v>324000</v>
       </c>
       <c r="D84" s="26">
-        <f>C84*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>64800</v>
       </c>
       <c r="E84" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>HD 3,2 GB Ultra DMA 5400rpm---324000</v>
+        <f t="shared" si="3"/>
+        <v>HD 3,2 GB Ultra DMA 5400rpm---324.000,00 €</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -8086,12 +8043,12 @@
         <v>378000</v>
       </c>
       <c r="D85" s="26">
-        <f>C85*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>75600</v>
       </c>
       <c r="E85" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>HD 4,3 GB Ultra DMA 5400rpm---378000</v>
+        <f t="shared" si="3"/>
+        <v>HD 4,3 GB Ultra DMA 5400rpm---378.000,00 €</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -8105,12 +8062,12 @@
         <v>469000</v>
       </c>
       <c r="D86" s="26">
-        <f>C86*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>93800</v>
       </c>
       <c r="E86" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>HD 5,2 GB Ultra DMA 5400rpm---469000</v>
+        <f t="shared" si="3"/>
+        <v>HD 5,2 GB Ultra DMA 5400rpm---469.000,00 €</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -8124,12 +8081,12 @@
         <v>556000</v>
       </c>
       <c r="D87" s="26">
-        <f>C87*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>111200</v>
       </c>
       <c r="E87" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>HD 6,4 GB Ultra DMA 5400rpm---556000</v>
+        <f t="shared" si="3"/>
+        <v>HD 6,4 GB Ultra DMA 5400rpm---556.000,00 €</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -8143,12 +8100,12 @@
         <v>476000</v>
       </c>
       <c r="D88" s="26">
-        <f>C88*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>95200</v>
       </c>
       <c r="E88" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>HD 2 GB SCSI III 5400 rpm---476000</v>
+        <f t="shared" si="3"/>
+        <v>HD 2 GB SCSI III 5400 rpm---476.000,00 €</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -8162,12 +8119,12 @@
         <v>477000</v>
       </c>
       <c r="D89" s="26">
-        <f>C89*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>95400</v>
       </c>
       <c r="E89" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>HD 3,2 GB SCSI III 5400rpm---477000</v>
+        <f t="shared" si="3"/>
+        <v>HD 3,2 GB SCSI III 5400rpm---477.000,00 €</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -8181,12 +8138,12 @@
         <v>556000</v>
       </c>
       <c r="D90" s="26">
-        <f>C90*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>111200</v>
       </c>
       <c r="E90" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>HD 4,3 GB SCSI 5400 rpm---556000</v>
+        <f t="shared" si="3"/>
+        <v>HD 4,3 GB SCSI 5400 rpm---556.000,00 €</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -8200,12 +8157,12 @@
         <v>695000</v>
       </c>
       <c r="D91" s="26">
-        <f>C91*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>139000</v>
       </c>
       <c r="E91" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>HD 4,5 GB SCSI ULTRA WIDE 7200rpm---695000</v>
+        <f t="shared" si="3"/>
+        <v>HD 4,5 GB SCSI ULTRA WIDE 7200rpm---695.000,00 €</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -8219,12 +8176,12 @@
         <v>1279000</v>
       </c>
       <c r="D92" s="26">
-        <f>C92*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>255800</v>
       </c>
       <c r="E92" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>HD 4,5 GB SCSI ULTRA WIDE 10.000rpm---1279000</v>
+        <f t="shared" si="3"/>
+        <v>HD 4,5 GB SCSI ULTRA WIDE 10.000rpm---1.279.000,00 €</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -8238,12 +8195,12 @@
         <v>35000</v>
       </c>
       <c r="D93" s="26">
-        <f>C93*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>7000</v>
       </c>
       <c r="E93" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>FDD 1,44MB---35000</v>
+        <f t="shared" si="3"/>
+        <v>FDD 1,44MB---35.000,00 €</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -8257,12 +8214,12 @@
         <v>175000</v>
       </c>
       <c r="D94" s="26">
-        <f>C94*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>35000</v>
       </c>
       <c r="E94" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>FLOPPY DRIVE 120MB---175000</v>
+        <f t="shared" si="3"/>
+        <v>FLOPPY DRIVE 120MB---175.000,00 €</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -8276,12 +8233,12 @@
         <v>272000</v>
       </c>
       <c r="D95" s="26">
-        <f>C95*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>54400</v>
       </c>
       <c r="E95" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>ZIP DRIVE 100MB PARALL.---272000</v>
+        <f t="shared" si="3"/>
+        <v>ZIP DRIVE 100MB PARALL.---272.000,00 €</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -8295,12 +8252,12 @@
         <v>198000</v>
       </c>
       <c r="D96" s="26">
-        <f>C96*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>39600</v>
       </c>
       <c r="E96" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>ZIP ATAPI 100MB INTERNO---198000</v>
+        <f t="shared" si="3"/>
+        <v>ZIP ATAPI 100MB INTERNO---198.000,00 €</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -8314,12 +8271,12 @@
         <v>290000</v>
       </c>
       <c r="D97" s="26">
-        <f>C97*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>58000</v>
       </c>
       <c r="E97" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>ZIP DRIVE 100MB SCSI---290000</v>
+        <f t="shared" si="3"/>
+        <v>ZIP DRIVE 100MB SCSI---290.000,00 €</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -8333,12 +8290,12 @@
         <v>589000</v>
       </c>
       <c r="D98" s="26">
-        <f>C98*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>117800</v>
       </c>
       <c r="E98" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>JAZ DRIVE 1GB INT.---589000</v>
+        <f t="shared" si="3"/>
+        <v>JAZ DRIVE 1GB INT.---589.000,00 €</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -8352,12 +8309,12 @@
         <v>743000</v>
       </c>
       <c r="D99" s="26">
-        <f>C99*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>148600</v>
       </c>
       <c r="E99" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>JAZ DRIVE 1GB EXT.---743000</v>
+        <f t="shared" si="3"/>
+        <v>JAZ DRIVE 1GB EXT.---743.000,00 €</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -8371,12 +8328,12 @@
         <v>271000</v>
       </c>
       <c r="D100" s="26">
-        <f>C100*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>54200</v>
       </c>
       <c r="E100" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>KIT 10  CARTUCCE ZIP DRIVE---271000</v>
+        <f t="shared" si="3"/>
+        <v>KIT 10  CARTUCCE ZIP DRIVE---271.000,00 €</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -8390,12 +8347,12 @@
         <v>632000</v>
       </c>
       <c r="D101" s="26">
-        <f>C101*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>126400</v>
       </c>
       <c r="E101" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>KIT 3 CARTUCCE JAZ DRIVE---632000</v>
+        <f t="shared" si="3"/>
+        <v>KIT 3 CARTUCCE JAZ DRIVE---632.000,00 €</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -8409,12 +8366,12 @@
         <v>90000</v>
       </c>
       <c r="D102" s="26">
-        <f>C102*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>18000</v>
       </c>
       <c r="E102" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>KIT 3 CARTUCCE 120MB 3M---90000</v>
+        <f t="shared" si="3"/>
+        <v>KIT 3 CARTUCCE 120MB 3M---90.000,00 €</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -8428,12 +8385,12 @@
         <v>4000</v>
       </c>
       <c r="D103" s="26">
-        <f>C103*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="E103" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>FRAME HDD ---4000</v>
+        <f t="shared" si="3"/>
+        <v>FRAME HDD ---4.000,00 €</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -8447,12 +8404,12 @@
         <v>5000</v>
       </c>
       <c r="D104" s="26">
-        <f>C104*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E104" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>FRAME FDD ---5000</v>
+        <f t="shared" si="3"/>
+        <v>FRAME FDD ---5.000,00 €</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -8466,12 +8423,12 @@
         <v>41000</v>
       </c>
       <c r="D105" s="26">
-        <f>C105*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>8200</v>
       </c>
       <c r="E105" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>FRAME REMOVIBILE 3.5"---41000</v>
+        <f t="shared" si="3"/>
+        <v>FRAME REMOVIBILE 3.5"---41.000,00 €</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -8480,12 +8437,12 @@
       </c>
       <c r="C106" s="29"/>
       <c r="D106" s="26">
-        <f>C106*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E106" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>MAGNETO-OTTICI---</v>
+        <f t="shared" si="3"/>
+        <v>MAGNETO-OTTICI---0,00 €</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -8499,12 +8456,12 @@
         <v>737000</v>
       </c>
       <c r="D107" s="26">
-        <f>C107*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>147400</v>
       </c>
       <c r="E107" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>M.O. + CD 4X,  PD 2000 INT. 650 MB---737000</v>
+        <f t="shared" si="3"/>
+        <v>M.O. + CD 4X,  PD 2000 INT. 650 MB---737.000,00 €</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -8518,12 +8475,12 @@
         <v>910000</v>
       </c>
       <c r="D108" s="26">
-        <f>C108*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>182000</v>
       </c>
       <c r="E108" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>M.O. + CD 4X,  PD 2000 EXT. 650 MB---910000</v>
+        <f t="shared" si="3"/>
+        <v>M.O. + CD 4X,  PD 2000 EXT. 650 MB---910.000,00 €</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -8534,12 +8491,12 @@
         <v>241000</v>
       </c>
       <c r="D109" s="26">
-        <f>C109*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>48200</v>
       </c>
       <c r="E109" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>KIT 5 CARTUCCE 650 MB---241000</v>
+        <f t="shared" si="3"/>
+        <v>KIT 5 CARTUCCE 650 MB---241.000,00 €</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -8548,12 +8505,12 @@
       </c>
       <c r="C110" s="29"/>
       <c r="D110" s="26">
-        <f>C110*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E110" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CD ROM---</v>
+        <f t="shared" si="3"/>
+        <v>CD ROM---0,00 €</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -8567,12 +8524,12 @@
         <v>112000</v>
       </c>
       <c r="D111" s="26">
-        <f>C111*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>22400</v>
       </c>
       <c r="E111" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CD ROM 24X HITACHI CDR 8330---112000</v>
+        <f t="shared" si="3"/>
+        <v>CD ROM 24X HITACHI CDR 8330---112.000,00 €</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -8586,12 +8543,12 @@
         <v>113000</v>
       </c>
       <c r="D112" s="26">
-        <f>C112*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>22600</v>
       </c>
       <c r="E112" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CD ROM 24X CREATIVE---113000</v>
+        <f t="shared" si="3"/>
+        <v>CD ROM 24X CREATIVE---113.000,00 €</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -8605,12 +8562,12 @@
         <v>121000</v>
       </c>
       <c r="D113" s="26">
-        <f>C113*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>24200</v>
       </c>
       <c r="E113" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CD ROM 24X PIONEER 502-S Bulk---121000</v>
+        <f t="shared" si="3"/>
+        <v>CD ROM 24X PIONEER 502-S Bulk---121.000,00 €</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -8624,12 +8581,12 @@
         <v>160000</v>
       </c>
       <c r="D114" s="26">
-        <f>C114*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
       <c r="E114" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CD ROM 34X ASUS---160000</v>
+        <f t="shared" si="3"/>
+        <v>CD ROM 34X ASUS---160.000,00 €</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -8643,12 +8600,12 @@
         <v>195000</v>
       </c>
       <c r="D115" s="26">
-        <f>C115*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>39000</v>
       </c>
       <c r="E115" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CD ROM 24X SCSI NEC---195000</v>
+        <f t="shared" si="3"/>
+        <v>CD ROM 24X SCSI NEC---195.000,00 €</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -8662,12 +8619,12 @@
         <v>215000</v>
       </c>
       <c r="D116" s="26">
-        <f>C116*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>43000</v>
       </c>
       <c r="E116" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CD ROM 32X SCSI WAITEC---215000</v>
+        <f t="shared" si="3"/>
+        <v>CD ROM 32X SCSI WAITEC---215.000,00 €</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -8681,12 +8638,12 @@
         <v>321000</v>
       </c>
       <c r="D117" s="26">
-        <f>C117*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>64200</v>
       </c>
       <c r="E117" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CD ROM PLEXTOR PX-32TSI---321000</v>
+        <f t="shared" si="3"/>
+        <v>CD ROM PLEXTOR PX-32TSI---321.000,00 €</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -8700,12 +8657,12 @@
         <v>614000</v>
       </c>
       <c r="D118" s="26">
-        <f>C118*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>122800</v>
       </c>
       <c r="E118" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>DVD CREATIVE KIT ENCORE DXR2---614000</v>
+        <f t="shared" si="3"/>
+        <v>DVD CREATIVE KIT ENCORE DXR2---614.000,00 €</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -8714,12 +8671,12 @@
       </c>
       <c r="C119" s="29"/>
       <c r="D119" s="26">
-        <f>C119*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E119" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>MASTERIZZATORI---</v>
+        <f t="shared" si="3"/>
+        <v>MASTERIZZATORI---0,00 €</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -8733,12 +8690,12 @@
         <v>30000</v>
       </c>
       <c r="D120" s="26">
-        <f>C120*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="E120" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CONFEZIONE 10 CDR 74'---30000</v>
+        <f t="shared" si="3"/>
+        <v>CONFEZIONE 10 CDR 74'---30.000,00 €</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -8752,12 +8709,12 @@
         <v>34000</v>
       </c>
       <c r="D121" s="26">
-        <f>C121*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>6800</v>
       </c>
       <c r="E121" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CD RISCRIVIBILE 74'---34000</v>
+        <f t="shared" si="3"/>
+        <v>CD RISCRIVIBILE 74'---34.000,00 €</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -8771,12 +8728,12 @@
         <v>35000</v>
       </c>
       <c r="D122" s="26">
-        <f>C122*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>7000</v>
       </c>
       <c r="E122" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CONFEZIONE 10 CDR 74' KODAK---35000</v>
+        <f t="shared" si="3"/>
+        <v>CONFEZIONE 10 CDR 74' KODAK---35.000,00 €</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -8790,12 +8747,12 @@
         <v>77000</v>
       </c>
       <c r="D123" s="26">
-        <f>C123*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>15400</v>
       </c>
       <c r="E123" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>SOFTWARE LABELLER CD KIT---77000</v>
+        <f t="shared" si="3"/>
+        <v>SOFTWARE LABELLER CD KIT---77.000,00 €</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -8809,12 +8766,12 @@
         <v>723000</v>
       </c>
       <c r="D124" s="26">
-        <f>C124*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>144600</v>
       </c>
       <c r="E124" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>WAITEC WT48/1 - GEAR ----723000</v>
+        <f t="shared" si="3"/>
+        <v>WAITEC WT48/1 - GEAR ----723.000,00 €</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -8828,12 +8785,12 @@
         <v>742000</v>
       </c>
       <c r="D125" s="26">
-        <f>C125*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>148400</v>
       </c>
       <c r="E125" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>WAITEC 2036EI/1 - SOFTWARE ---742000</v>
+        <f t="shared" si="3"/>
+        <v>WAITEC 2036EI/1 - SOFTWARE ---742.000,00 €</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -8847,12 +8804,12 @@
         <v>778000</v>
       </c>
       <c r="D126" s="26">
-        <f>C126*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>155600</v>
       </c>
       <c r="E126" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>RICOH MP6200ADP + SOFT.+5 CDR---778000</v>
+        <f t="shared" si="3"/>
+        <v>RICOH MP6200ADP + SOFT.+5 CDR---778.000,00 €</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -8866,12 +8823,12 @@
         <v>878000</v>
       </c>
       <c r="D127" s="26">
-        <f>C127*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>175600</v>
       </c>
       <c r="E127" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>RICOH MP6200SR - SOFTWARE SCSI---878000</v>
+        <f t="shared" si="3"/>
+        <v>RICOH MP6200SR - SOFTWARE SCSI---878.000,00 €</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -8885,12 +8842,12 @@
         <v>883000</v>
       </c>
       <c r="D128" s="26">
-        <f>C128*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>176600</v>
       </c>
       <c r="E128" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>WAITEC 2026/1 - SOFTWARE SCSI---883000</v>
+        <f t="shared" si="3"/>
+        <v>WAITEC 2026/1 - SOFTWARE SCSI---883.000,00 €</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -8904,12 +8861,12 @@
         <v>913000</v>
       </c>
       <c r="D129" s="26">
-        <f>C129*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>182600</v>
       </c>
       <c r="E129" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CDR 480i PLASMON EASY CD---913000</v>
+        <f t="shared" si="3"/>
+        <v>CDR 480i PLASMON EASY CD---913.000,00 €</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -8923,12 +8880,12 @@
         <v>1125000</v>
       </c>
       <c r="D130" s="26">
-        <f>C130*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>225000</v>
       </c>
       <c r="E130" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>CDR 480e PLASMON EASY CD---1125000</v>
+        <f t="shared" si="3"/>
+        <v>CDR 480e PLASMON EASY CD---1.125.000,00 €</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -8937,12 +8894,12 @@
       </c>
       <c r="C131" s="29"/>
       <c r="D131" s="26">
-        <f>C131*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E131" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>MEMORIE---</v>
+        <f t="shared" si="3"/>
+        <v>MEMORIE---0,00 €</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -8953,12 +8910,12 @@
         <v>33000</v>
       </c>
       <c r="D132" s="26">
-        <f>C132*IVATOT</f>
+        <f t="shared" si="2"/>
         <v>6600</v>
       </c>
       <c r="E132" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>SIMM 8MB 72 PIN (EDO)---33000</v>
+        <f t="shared" si="3"/>
+        <v>SIMM 8MB 72 PIN (EDO)---33.000,00 €</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -8969,12 +8926,12 @@
         <v>52000</v>
       </c>
       <c r="D133" s="26">
-        <f>C133*IVATOT</f>
+        <f t="shared" ref="D133:D196" si="4">C133*IVATOT</f>
         <v>10400</v>
       </c>
       <c r="E133" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>SIMM 16MB 72 PIN (EDO)---52000</v>
+        <f t="shared" si="3"/>
+        <v>SIMM 16MB 72 PIN (EDO)---52.000,00 €</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -8985,12 +8942,12 @@
         <v>97000</v>
       </c>
       <c r="D134" s="26">
-        <f>C134*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>19400</v>
       </c>
       <c r="E134" s="10" t="str">
-        <f t="shared" ref="E134:E197" si="2">A134&amp;"---"&amp;C134</f>
-        <v>SIMM 32MB 72 PIN (EDO)---97000</v>
+        <f t="shared" ref="E134:E197" si="5">A134&amp;"---"&amp;DOLLAR(C134)</f>
+        <v>SIMM 32MB 72 PIN (EDO)---97.000,00 €</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -9002,12 +8959,12 @@
       </c>
       <c r="C135" s="29"/>
       <c r="D135" s="26">
-        <f>C135*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E135" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>MODEM FAX - VIDEOCAMERA---</v>
+        <f t="shared" si="5"/>
+        <v>MODEM FAX - VIDEOCAMERA---0,00 €</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -9021,12 +8978,12 @@
         <v>131000</v>
       </c>
       <c r="D136" s="26">
-        <f>C136*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>26200</v>
       </c>
       <c r="E136" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F MOTOROLA 3400PRO 28800 EXT---131000</v>
+        <f t="shared" si="5"/>
+        <v>M/F MOTOROLA 3400PRO 28800 EXT---131.000,00 €</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -9040,12 +8997,12 @@
         <v>169000</v>
       </c>
       <c r="D137" s="26">
-        <f>C137*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>33800</v>
       </c>
       <c r="E137" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F LEONARDO PC 33600 INT OEM---169000</v>
+        <f t="shared" si="5"/>
+        <v>M/F LEONARDO PC 33600 INT OEM---169.000,00 €</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -9059,12 +9016,12 @@
         <v>190000</v>
       </c>
       <c r="D138" s="26">
-        <f>C138*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>38000</v>
       </c>
       <c r="E138" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F LEONARDO PC 33600 EXT---190000</v>
+        <f t="shared" si="5"/>
+        <v>M/F LEONARDO PC 33600 EXT---190.000,00 €</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -9078,12 +9035,12 @@
         <v>191000</v>
       </c>
       <c r="D139" s="26">
-        <f>C139*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>38200</v>
       </c>
       <c r="E139" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F MOTOROLA 56K  EXT BULK---191000</v>
+        <f t="shared" si="5"/>
+        <v>M/F MOTOROLA 56K  EXT BULK---191.000,00 €</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -9097,12 +9054,12 @@
         <v>197000</v>
       </c>
       <c r="D140" s="26">
-        <f>C140*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>39400</v>
       </c>
       <c r="E140" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F LEONARDO PC 33600 INT---197000</v>
+        <f t="shared" si="5"/>
+        <v>M/F LEONARDO PC 33600 INT---197.000,00 €</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -9116,12 +9073,12 @@
         <v>201000</v>
       </c>
       <c r="D141" s="26">
-        <f>C141*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>40200</v>
       </c>
       <c r="E141" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F TIZIANO 33600 EXT---201000</v>
+        <f t="shared" si="5"/>
+        <v>M/F TIZIANO 33600 EXT---201.000,00 €</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -9135,12 +9092,12 @@
         <v>220000</v>
       </c>
       <c r="D142" s="26">
-        <f>C142*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>44000</v>
       </c>
       <c r="E142" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F SPORTSTER FLASH 33600 EXT ITA ---220000</v>
+        <f t="shared" si="5"/>
+        <v>M/F SPORTSTER FLASH 33600 EXT ITA ---220.000,00 €</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -9154,12 +9111,12 @@
         <v>250000</v>
       </c>
       <c r="D143" s="26">
-        <f>C143*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
       <c r="E143" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F MOTOROLA 56K  EXT---250000</v>
+        <f t="shared" si="5"/>
+        <v>M/F MOTOROLA 56K  EXT---250.000,00 €</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -9173,12 +9130,12 @@
         <v>257000</v>
       </c>
       <c r="D144" s="26">
-        <f>C144*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>51400</v>
       </c>
       <c r="E144" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F LEONARDO  56K  EXT---257000</v>
+        <f t="shared" si="5"/>
+        <v>M/F LEONARDO  56K  EXT---257.000,00 €</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -9192,12 +9149,12 @@
         <v>278000</v>
       </c>
       <c r="D145" s="26">
-        <f>C145*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>55600</v>
       </c>
       <c r="E145" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F TIZIANO 56K EXT---278000</v>
+        <f t="shared" si="5"/>
+        <v>M/F TIZIANO 56K EXT---278.000,00 €</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -9211,12 +9168,12 @@
         <v>280000</v>
       </c>
       <c r="D146" s="26">
-        <f>C146*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>56000</v>
       </c>
       <c r="E146" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F SPORTSTER MESSAGE PLUS---280000</v>
+        <f t="shared" si="5"/>
+        <v>M/F SPORTSTER MESSAGE PLUS---280.000,00 €</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -9230,12 +9187,12 @@
         <v>300000</v>
       </c>
       <c r="D147" s="26">
-        <f>C147*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>60000</v>
       </c>
       <c r="E147" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F LEONARDO PCMCIA 33600---300000</v>
+        <f t="shared" si="5"/>
+        <v>M/F LEONARDO PCMCIA 33600---300.000,00 €</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -9249,12 +9206,12 @@
         <v>305000</v>
       </c>
       <c r="D148" s="26">
-        <f>C148*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>61000</v>
       </c>
       <c r="E148" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>KIT VIDEOCONFERENZA "GALILEO"---305000</v>
+        <f t="shared" si="5"/>
+        <v>KIT VIDEOCONFERENZA "GALILEO"---305.000,00 €</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -9268,12 +9225,12 @@
         <v>335000</v>
       </c>
       <c r="D149" s="26">
-        <f>C149*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>67000</v>
       </c>
       <c r="E149" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>MODEM ISDN TINTORETTO EXT.---335000</v>
+        <f t="shared" si="5"/>
+        <v>MODEM ISDN TINTORETTO EXT.---335.000,00 €</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -9287,12 +9244,12 @@
         <v>360000</v>
       </c>
       <c r="D150" s="26">
-        <f>C150*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>72000</v>
       </c>
       <c r="E150" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F LEONARDO PCMCIA 56K---360000</v>
+        <f t="shared" si="5"/>
+        <v>M/F LEONARDO PCMCIA 56K---360.000,00 €</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -9306,12 +9263,12 @@
         <v>429000</v>
       </c>
       <c r="D151" s="26">
-        <f>C151*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>85800</v>
       </c>
       <c r="E151" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>MODEM MOTOROLA ISDN  EXT.64/128K---429000</v>
+        <f t="shared" si="5"/>
+        <v>MODEM MOTOROLA ISDN  EXT.64/128K---429.000,00 €</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9325,12 +9282,12 @@
         <v>701000</v>
       </c>
       <c r="D152" s="26">
-        <f>C152*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>140200</v>
       </c>
       <c r="E152" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>M/F ISDN DONATELLO EXT.---701000</v>
+        <f t="shared" si="5"/>
+        <v>M/F ISDN DONATELLO EXT.---701.000,00 €</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9339,12 +9296,12 @@
       </c>
       <c r="C153" s="29"/>
       <c r="D153" s="26">
-        <f>C153*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E153" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>MULTIMEDIA---</v>
+        <f t="shared" si="5"/>
+        <v>MULTIMEDIA---0,00 €</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -9358,12 +9315,12 @@
         <v>90000</v>
       </c>
       <c r="D154" s="26">
-        <f>C154*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="E154" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SOUND AXP201/U PCI 64---90000</v>
+        <f t="shared" si="5"/>
+        <v>SOUND AXP201/U PCI 64---90.000,00 €</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -9377,12 +9334,12 @@
         <v>69000</v>
       </c>
       <c r="D155" s="26">
-        <f>C155*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>13800</v>
       </c>
       <c r="E155" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SOUND BLASTER 16 PnP  O.E.M.---69000</v>
+        <f t="shared" si="5"/>
+        <v>SOUND BLASTER 16 PnP  O.E.M.---69.000,00 €</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -9396,12 +9353,12 @@
         <v>89000</v>
       </c>
       <c r="D156" s="26">
-        <f>C156*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>17800</v>
       </c>
       <c r="E156" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SOUND BLASTER 16 PnP NO IDE---89000</v>
+        <f t="shared" si="5"/>
+        <v>SOUND BLASTER 16 PnP NO IDE---89.000,00 €</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -9415,12 +9372,12 @@
         <v>138000</v>
       </c>
       <c r="D157" s="26">
-        <f>C157*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>27600</v>
       </c>
       <c r="E157" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SOUND BLASTER AWE64 STD OEM---138000</v>
+        <f t="shared" si="5"/>
+        <v>SOUND BLASTER AWE64 STD OEM---138.000,00 €</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -9434,12 +9391,12 @@
         <v>196000</v>
       </c>
       <c r="D158" s="26">
-        <f>C158*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>39200</v>
       </c>
       <c r="E158" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SOUND BLASTER AWE64 STANDARD---196000</v>
+        <f t="shared" si="5"/>
+        <v>SOUND BLASTER AWE64 STANDARD---196.000,00 €</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -9453,12 +9410,12 @@
         <v>329000</v>
       </c>
       <c r="D159" s="26">
-        <f>C159*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>65800</v>
       </c>
       <c r="E159" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SOUND BLASTER AWE64 GOLD PNP ---329000</v>
+        <f t="shared" si="5"/>
+        <v>SOUND BLASTER AWE64 GOLD PNP ---329.000,00 €</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -9472,12 +9429,12 @@
         <v>295000</v>
       </c>
       <c r="D160" s="26">
-        <f>C160*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>59000</v>
       </c>
       <c r="E160" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>KIT "DISCOVERY AWE64" 24X PNP---295000</v>
+        <f t="shared" si="5"/>
+        <v>KIT "DISCOVERY AWE64" 24X PNP---295.000,00 €</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -9491,12 +9448,12 @@
         <v>19000</v>
       </c>
       <c r="D161" s="26">
-        <f>C161*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>3800</v>
       </c>
       <c r="E161" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SPEAKERS MLI-699---19000</v>
+        <f t="shared" si="5"/>
+        <v>SPEAKERS MLI-699---19.000,00 €</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -9510,12 +9467,12 @@
         <v>26000</v>
       </c>
       <c r="D162" s="26">
-        <f>C162*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>5200</v>
       </c>
       <c r="E162" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SPEAKER 25 W---26000</v>
+        <f t="shared" si="5"/>
+        <v>SPEAKER 25 W---26.000,00 €</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -9529,12 +9486,12 @@
         <v>28000</v>
       </c>
       <c r="D163" s="26">
-        <f>C163*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>5600</v>
       </c>
       <c r="E163" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SPEAKER PROFESSIONAL 70 W---28000</v>
+        <f t="shared" si="5"/>
+        <v>SPEAKER PROFESSIONAL 70 W---28.000,00 €</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -9548,12 +9505,12 @@
         <v>56000</v>
       </c>
       <c r="D164" s="26">
-        <f>C164*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>11200</v>
       </c>
       <c r="E164" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>ULTRA SPEAKER 130W---56000</v>
+        <f t="shared" si="5"/>
+        <v>ULTRA SPEAKER 130W---56.000,00 €</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -9562,12 +9519,12 @@
       </c>
       <c r="C165" s="29"/>
       <c r="D165" s="26">
-        <f>C165*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E165" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>MICROPROCESSORI---</v>
+        <f t="shared" si="5"/>
+        <v>MICROPROCESSORI---0,00 €</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -9578,12 +9535,12 @@
         <v>216000</v>
       </c>
       <c r="D166" s="26">
-        <f>C166*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>43200</v>
       </c>
       <c r="E166" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>PENTIUM 166 INTEL MMX---216000</v>
+        <f t="shared" si="5"/>
+        <v>PENTIUM 166 INTEL MMX---216.000,00 €</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -9594,12 +9551,12 @@
         <v>250000</v>
       </c>
       <c r="D167" s="26">
-        <f>C167*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
       <c r="E167" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>PENTIUM 200 INTEL MMX---250000</v>
+        <f t="shared" si="5"/>
+        <v>PENTIUM 200 INTEL MMX---250.000,00 €</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -9610,12 +9567,12 @@
         <v>382000</v>
       </c>
       <c r="D168" s="26">
-        <f>C168*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>76400</v>
       </c>
       <c r="E168" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>PENTIUM 233 INTEL MMX---382000</v>
+        <f t="shared" si="5"/>
+        <v>PENTIUM 233 INTEL MMX---382.000,00 €</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -9626,12 +9583,12 @@
         <v>524000</v>
       </c>
       <c r="D169" s="26">
-        <f>C169*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>104800</v>
       </c>
       <c r="E169" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>PENTIUM II 233 INTEL 512k---524000</v>
+        <f t="shared" si="5"/>
+        <v>PENTIUM II 233 INTEL 512k---524.000,00 €</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -9642,12 +9599,12 @@
         <v>757000</v>
       </c>
       <c r="D170" s="26">
-        <f>C170*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>151400</v>
       </c>
       <c r="E170" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>PENTIUM II 266 INTEL 512k---757000</v>
+        <f t="shared" si="5"/>
+        <v>PENTIUM II 266 INTEL 512k---757.000,00 €</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -9658,12 +9615,12 @@
         <v>1045000</v>
       </c>
       <c r="D171" s="26">
-        <f>C171*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>209000</v>
       </c>
       <c r="E171" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>PENTIUM II 300 INTEL 512K---1045000</v>
+        <f t="shared" si="5"/>
+        <v>PENTIUM II 300 INTEL 512K---1.045.000,00 €</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -9674,12 +9631,12 @@
         <v>1568000</v>
       </c>
       <c r="D172" s="26">
-        <f>C172*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>313600</v>
       </c>
       <c r="E172" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>PENTIUM II 333 INTEL 512K---1568000</v>
+        <f t="shared" si="5"/>
+        <v>PENTIUM II 333 INTEL 512K---1.568.000,00 €</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -9690,12 +9647,12 @@
         <v>117000</v>
       </c>
       <c r="D173" s="26">
-        <f>C173*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>23400</v>
       </c>
       <c r="E173" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SGS P 166+---117000</v>
+        <f t="shared" si="5"/>
+        <v>SGS P 166+---117.000,00 €</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -9706,12 +9663,12 @@
         <v>158000</v>
       </c>
       <c r="D174" s="26">
-        <f>C174*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>31600</v>
       </c>
       <c r="E174" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>IBM 200 MX---158000</v>
+        <f t="shared" si="5"/>
+        <v>IBM 200 MX---158.000,00 €</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -9722,12 +9679,12 @@
         <v>260000</v>
       </c>
       <c r="D175" s="26">
-        <f>C175*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>52000</v>
       </c>
       <c r="E175" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>IBM 233 MX---260000</v>
+        <f t="shared" si="5"/>
+        <v>IBM 233 MX---260.000,00 €</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -9738,12 +9695,12 @@
         <v>193000</v>
       </c>
       <c r="D176" s="26">
-        <f>C176*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>38600</v>
       </c>
       <c r="E176" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>AMD K6-166---193000</v>
+        <f t="shared" si="5"/>
+        <v>AMD K6-166---193.000,00 €</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -9754,12 +9711,12 @@
         <v>270000</v>
       </c>
       <c r="D177" s="26">
-        <f>C177*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>54000</v>
       </c>
       <c r="E177" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>AMD K6-200---270000</v>
+        <f t="shared" si="5"/>
+        <v>AMD K6-200---270.000,00 €</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -9770,12 +9727,12 @@
         <v>314000</v>
       </c>
       <c r="D178" s="26">
-        <f>C178*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>62800</v>
       </c>
       <c r="E178" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>AMD K6-233---314000</v>
+        <f t="shared" si="5"/>
+        <v>AMD K6-233---314.000,00 €</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -9786,12 +9743,12 @@
         <v>894000</v>
       </c>
       <c r="D179" s="26">
-        <f>C179*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>178800</v>
       </c>
       <c r="E179" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>PENTIUM PRO 180 MZH---894000</v>
+        <f t="shared" si="5"/>
+        <v>PENTIUM PRO 180 MZH---894.000,00 €</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -9802,12 +9759,12 @@
         <v>1040000</v>
       </c>
       <c r="D180" s="26">
-        <f>C180*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>208000</v>
       </c>
       <c r="E180" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>PENTIUM PRO 200 MZH---1040000</v>
+        <f t="shared" si="5"/>
+        <v>PENTIUM PRO 200 MZH---1.040.000,00 €</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -9818,12 +9775,12 @@
         <v>8000</v>
       </c>
       <c r="D181" s="26">
-        <f>C181*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>1600</v>
       </c>
       <c r="E181" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VENTOLINA PENTIUM 75-166---8000</v>
+        <f t="shared" si="5"/>
+        <v>VENTOLINA PENTIUM 75-166---8.000,00 €</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -9834,12 +9791,12 @@
         <v>10000</v>
       </c>
       <c r="D182" s="26">
-        <f>C182*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="E182" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VENTOLINA PENTIUM 200---10000</v>
+        <f t="shared" si="5"/>
+        <v>VENTOLINA PENTIUM 200---10.000,00 €</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -9850,12 +9807,12 @@
         <v>24000</v>
       </c>
       <c r="D183" s="26">
-        <f>C183*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>4800</v>
       </c>
       <c r="E183" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VENTOLA PER PENTIUM PRO---24000</v>
+        <f t="shared" si="5"/>
+        <v>VENTOLA PER PENTIUM PRO---24.000,00 €</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -9869,12 +9826,12 @@
         <v>11000</v>
       </c>
       <c r="D184" s="26">
-        <f>C184*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>2200</v>
       </c>
       <c r="E184" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VENTOLINA PER IBM/CYRIX 686---11000</v>
+        <f t="shared" si="5"/>
+        <v>VENTOLINA PER IBM/CYRIX 686---11.000,00 €</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -9888,12 +9845,12 @@
         <v>10000</v>
       </c>
       <c r="D185" s="26">
-        <f>C185*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="E185" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VENTOLA 3 PIN per TX97---10000</v>
+        <f t="shared" si="5"/>
+        <v>VENTOLA 3 PIN per TX97---10.000,00 €</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -9907,12 +9864,12 @@
         <v>26000</v>
       </c>
       <c r="D186" s="26">
-        <f>C186*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>5200</v>
       </c>
       <c r="E186" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>VENTOLA PENTIUM II---26000</v>
+        <f t="shared" si="5"/>
+        <v>VENTOLA PENTIUM II---26.000,00 €</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -9921,12 +9878,12 @@
       </c>
       <c r="C187" s="29"/>
       <c r="D187" s="26">
-        <f>C187*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E187" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>TASTIERE---</v>
+        <f t="shared" si="5"/>
+        <v>TASTIERE---0,00 €</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -9940,12 +9897,12 @@
         <v>22000</v>
       </c>
       <c r="D188" s="26">
-        <f>C188*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="E188" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>TAST. ITA 105 TASTI WIN 95---22000</v>
+        <f t="shared" si="5"/>
+        <v>TAST. ITA 105 TASTI WIN 95---22.000,00 €</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -9959,12 +9916,12 @@
         <v>63000</v>
       </c>
       <c r="D189" s="26">
-        <f>C189*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>12600</v>
       </c>
       <c r="E189" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>TAST. ITA   79t---63000</v>
+        <f t="shared" si="5"/>
+        <v>TAST. ITA   79t---63.000,00 €</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -9978,12 +9935,12 @@
         <v>63000</v>
       </c>
       <c r="D190" s="26">
-        <f>C190*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>12600</v>
       </c>
       <c r="E190" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>TAST. USA 79t---63000</v>
+        <f t="shared" si="5"/>
+        <v>TAST. USA 79t---63.000,00 €</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -9997,12 +9954,12 @@
         <v>26000</v>
       </c>
       <c r="D191" s="26">
-        <f>C191*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>5200</v>
       </c>
       <c r="E191" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>TAST. USA 105 TASTI WIN95---26000</v>
+        <f t="shared" si="5"/>
+        <v>TAST. USA 105 TASTI WIN95---26.000,00 €</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -10016,12 +9973,12 @@
         <v>25000</v>
       </c>
       <c r="D192" s="26">
-        <f>C192*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="E192" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>TAST. ITA  105 TASTI NMB, WIN95---25000</v>
+        <f t="shared" si="5"/>
+        <v>TAST. ITA  105 TASTI NMB, WIN95---25.000,00 €</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -10035,12 +9992,12 @@
         <v>25000</v>
       </c>
       <c r="D193" s="26">
-        <f>C193*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="E193" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>TAST. ITA  105 TASTI NMB, PS/2 WIN95---25000</v>
+        <f t="shared" si="5"/>
+        <v>TAST. ITA  105 TASTI NMB, PS/2 WIN95---25.000,00 €</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -10054,12 +10011,12 @@
         <v>46000</v>
       </c>
       <c r="D194" s="26">
-        <f>C194*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>9200</v>
       </c>
       <c r="E194" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>TAST. ITA 105 TASTI "CYPRESS"  WIN95---46000</v>
+        <f t="shared" si="5"/>
+        <v>TAST. ITA 105 TASTI "CYPRESS"  WIN95---46.000,00 €</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -10068,12 +10025,12 @@
       </c>
       <c r="C195" s="29"/>
       <c r="D195" s="26">
-        <f>C195*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E195" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SCANNER E ACCESSORI---</v>
+        <f t="shared" si="5"/>
+        <v>SCANNER E ACCESSORI---0,00 €</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -10087,12 +10044,12 @@
         <v>37000</v>
       </c>
       <c r="D196" s="26">
-        <f>C196*IVATOT</f>
+        <f t="shared" si="4"/>
         <v>7400</v>
       </c>
       <c r="E196" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>MOUSE  PILOT SERIALE---37000</v>
+        <f t="shared" si="5"/>
+        <v>MOUSE  PILOT SERIALE---37.000,00 €</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -10106,12 +10063,12 @@
         <v>37000</v>
       </c>
       <c r="D197" s="26">
-        <f>C197*IVATOT</f>
+        <f t="shared" ref="D197:D260" si="6">C197*IVATOT</f>
         <v>7400</v>
       </c>
       <c r="E197" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>MOUSE  PILOT P/S2---37000</v>
+        <f t="shared" si="5"/>
+        <v>MOUSE  PILOT P/S2---37.000,00 €</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -10125,12 +10082,12 @@
         <v>11000</v>
       </c>
       <c r="D198" s="26">
-        <f>C198*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>2200</v>
       </c>
       <c r="E198" s="10" t="str">
-        <f t="shared" ref="E198:E261" si="3">A198&amp;"---"&amp;C198</f>
-        <v>MOUSE SERIALE 3 TASTI---11000</v>
+        <f t="shared" ref="E198:E261" si="7">A198&amp;"---"&amp;DOLLAR(C198)</f>
+        <v>MOUSE SERIALE 3 TASTI---11.000,00 €</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -10144,12 +10101,12 @@
         <v>46000</v>
       </c>
       <c r="D199" s="26">
-        <f>C199*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>9200</v>
       </c>
       <c r="E199" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>MOUSE TRACKBALL ---46000</v>
+        <f t="shared" si="7"/>
+        <v>MOUSE TRACKBALL ---46.000,00 €</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -10163,12 +10120,12 @@
         <v>19000</v>
       </c>
       <c r="D200" s="26">
-        <f>C200*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>3800</v>
       </c>
       <c r="E200" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>MOUSE "RAINBOW" SERIALE---19000</v>
+        <f t="shared" si="7"/>
+        <v>MOUSE "RAINBOW" SERIALE---19.000,00 €</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -10182,12 +10139,12 @@
         <v>13000</v>
       </c>
       <c r="D201" s="26">
-        <f>C201*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>2600</v>
       </c>
       <c r="E201" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>MOUSE  ECHO PS/2---13000</v>
+        <f t="shared" si="7"/>
+        <v>MOUSE  ECHO PS/2---13.000,00 €</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -10201,12 +10158,12 @@
         <v>26000</v>
       </c>
       <c r="D202" s="26">
-        <f>C202*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>5200</v>
       </c>
       <c r="E202" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>VENUS MOUSE SERIALE---26000</v>
+        <f t="shared" si="7"/>
+        <v>VENUS MOUSE SERIALE---26.000,00 €</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -10220,12 +10177,12 @@
         <v>26000</v>
       </c>
       <c r="D203" s="26">
-        <f>C203*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>5200</v>
       </c>
       <c r="E203" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>VENUS MOUSE PS/2---26000</v>
+        <f t="shared" si="7"/>
+        <v>VENUS MOUSE PS/2---26.000,00 €</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -10239,12 +10196,12 @@
         <v>20000</v>
       </c>
       <c r="D204" s="26">
-        <f>C204*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>4000</v>
       </c>
       <c r="E204" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>JOYSTICK DIGITALE---20000</v>
+        <f t="shared" si="7"/>
+        <v>JOYSTICK DIGITALE---20.000,00 €</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -10258,12 +10215,12 @@
         <v>49000</v>
       </c>
       <c r="D205" s="26">
-        <f>C205*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>9800</v>
       </c>
       <c r="E205" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>JOYSTICK ULTRASTRIKER---49000</v>
+        <f t="shared" si="7"/>
+        <v>JOYSTICK ULTRASTRIKER---49.000,00 €</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -10277,12 +10234,12 @@
         <v>33000</v>
       </c>
       <c r="D206" s="26">
-        <f>C206*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>6600</v>
       </c>
       <c r="E206" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>NAVIGATOR MOUSE---33000</v>
+        <f t="shared" si="7"/>
+        <v>NAVIGATOR MOUSE---33.000,00 €</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -10296,12 +10253,12 @@
         <v>68000</v>
       </c>
       <c r="D207" s="26">
-        <f>C207*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>13600</v>
       </c>
       <c r="E207" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>JOYSTICK EXCALIBUR---68000</v>
+        <f t="shared" si="7"/>
+        <v>JOYSTICK EXCALIBUR---68.000,00 €</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -10315,12 +10272,12 @@
         <v>33000</v>
       </c>
       <c r="D208" s="26">
-        <f>C208*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>6600</v>
       </c>
       <c r="E208" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>GAMEPAD CONQUEROR---33000</v>
+        <f t="shared" si="7"/>
+        <v>GAMEPAD CONQUEROR---33.000,00 €</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -10334,12 +10291,12 @@
         <v>147000</v>
       </c>
       <c r="D209" s="26">
-        <f>C209*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>29400</v>
       </c>
       <c r="E209" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>COLOR HAND SCANNER---147000</v>
+        <f t="shared" si="7"/>
+        <v>COLOR HAND SCANNER---147.000,00 €</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -10353,12 +10310,12 @@
         <v>151000</v>
       </c>
       <c r="D210" s="26">
-        <f>C210*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>30200</v>
       </c>
       <c r="E210" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>SCANNER COLORADO 4800 SW + OCR ---151000</v>
+        <f t="shared" si="7"/>
+        <v>SCANNER COLORADO 4800 SW + OCR ---151.000,00 €</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -10372,12 +10329,12 @@
         <v>197000</v>
       </c>
       <c r="D211" s="26">
-        <f>C211*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>39400</v>
       </c>
       <c r="E211" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>SCANNER COLORADO D600 SW + OCR ---197000</v>
+        <f t="shared" si="7"/>
+        <v>SCANNER COLORADO D600 SW + OCR ---197.000,00 €</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -10391,12 +10348,12 @@
         <v>310000</v>
       </c>
       <c r="D212" s="26">
-        <f>C212*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>62000</v>
       </c>
       <c r="E212" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>SCANNER  DIRECT 9600 SW + OCR---310000</v>
+        <f t="shared" si="7"/>
+        <v>SCANNER  DIRECT 9600 SW + OCR---310.000,00 €</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -10410,12 +10367,12 @@
         <v>271000</v>
       </c>
       <c r="D213" s="26">
-        <f>C213*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>54200</v>
       </c>
       <c r="E213" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>SCANNER  JEWEL 4800 SCSI---271000</v>
+        <f t="shared" si="7"/>
+        <v>SCANNER  JEWEL 4800 SCSI---271.000,00 €</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -10429,12 +10386,12 @@
         <v>458000</v>
       </c>
       <c r="D214" s="26">
-        <f>C214*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>91600</v>
       </c>
       <c r="E214" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>SCANNER PROFI  9600 SCSI---458000</v>
+        <f t="shared" si="7"/>
+        <v>SCANNER PROFI  9600 SCSI---458.000,00 €</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -10448,12 +10405,12 @@
         <v>412000</v>
       </c>
       <c r="D215" s="26">
-        <f>C215*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>82400</v>
       </c>
       <c r="E215" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>SCANNER PHODOX U. S. 300---412000</v>
+        <f t="shared" si="7"/>
+        <v>SCANNER PHODOX U. S. 300---412.000,00 €</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -10467,12 +10424,12 @@
         <v>807000</v>
       </c>
       <c r="D216" s="26">
-        <f>C216*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>161400</v>
       </c>
       <c r="E216" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>FILMSCAN-200PC---807000</v>
+        <f t="shared" si="7"/>
+        <v>FILMSCAN-200PC---807.000,00 €</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -10483,12 +10440,12 @@
         <v>4000</v>
       </c>
       <c r="D217" s="26">
-        <f>C217*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="E217" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>TAPPETINO PER MOUSE---4000</v>
+        <f t="shared" si="7"/>
+        <v>TAPPETINO PER MOUSE---4.000,00 €</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -10499,12 +10456,12 @@
         <v>81000</v>
       </c>
       <c r="D218" s="26">
-        <f>C218*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>16200</v>
       </c>
       <c r="E218" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>ALIMENTATORE 200 W CE---81000</v>
+        <f t="shared" si="7"/>
+        <v>ALIMENTATORE 200 W CE---81.000,00 €</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -10515,12 +10472,12 @@
         <v>125000</v>
       </c>
       <c r="D219" s="26">
-        <f>C219*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>25000</v>
       </c>
       <c r="E219" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>ALIMENTATORE 250 W CE ATX---125000</v>
+        <f t="shared" si="7"/>
+        <v>ALIMENTATORE 250 W CE ATX---125.000,00 €</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -10531,12 +10488,12 @@
         <v>98000</v>
       </c>
       <c r="D220" s="26">
-        <f>C220*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>19600</v>
       </c>
       <c r="E220" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>ALIMENTATORE 230 W CE ATX---98000</v>
+        <f t="shared" si="7"/>
+        <v>ALIMENTATORE 230 W CE ATX---98.000,00 €</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -10547,12 +10504,12 @@
         <v>140000</v>
       </c>
       <c r="D221" s="26">
-        <f>C221*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>28000</v>
       </c>
       <c r="E221" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>ALIMENTATORE 300 W CE ATX---140000</v>
+        <f t="shared" si="7"/>
+        <v>ALIMENTATORE 300 W CE ATX---140.000,00 €</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -10566,12 +10523,12 @@
         <v>5000</v>
       </c>
       <c r="D222" s="26">
-        <f>C222*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E222" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>CAVO PARALLELO STAMP. MT 1,8---5000</v>
+        <f t="shared" si="7"/>
+        <v>CAVO PARALLELO STAMP. MT 1,8---5.000,00 €</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -10585,12 +10542,12 @@
         <v>6000</v>
       </c>
       <c r="D223" s="26">
-        <f>C223*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
       <c r="E223" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>CAVO PARALLELO STAMP. MT 1,8---6000</v>
+        <f t="shared" si="7"/>
+        <v>CAVO PARALLELO STAMP. MT 1,8---6.000,00 €</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -10601,12 +10558,12 @@
         <v>9000</v>
       </c>
       <c r="D224" s="26">
-        <f>C224*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
       <c r="E224" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>CAVO PARALLELO STAMP. MT 3---9000</v>
+        <f t="shared" si="7"/>
+        <v>CAVO PARALLELO STAMP. MT 3---9.000,00 €</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -10620,12 +10577,12 @@
         <v>8000</v>
       </c>
       <c r="D225" s="26">
-        <f>C225*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="E225" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>CONNETTORE MOUSE PS/2---8000</v>
+        <f t="shared" si="7"/>
+        <v>CONNETTORE MOUSE PS/2---8.000,00 €</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -10636,12 +10593,12 @@
         <v>11000</v>
       </c>
       <c r="D226" s="26">
-        <f>C226*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>2200</v>
       </c>
       <c r="E226" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>CONNETTORE TASTIERA PS/2---11000</v>
+        <f t="shared" si="7"/>
+        <v>CONNETTORE TASTIERA PS/2---11.000,00 €</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -10655,12 +10612,12 @@
         <v>21000</v>
       </c>
       <c r="D227" s="26">
-        <f>C227*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>4200</v>
       </c>
       <c r="E227" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>CONNETTORE USB/MIR---21000</v>
+        <f t="shared" si="7"/>
+        <v>CONNETTORE USB/MIR---21.000,00 €</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -10674,12 +10631,12 @@
         <v>14000</v>
       </c>
       <c r="D228" s="26">
-        <f>C228*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>2800</v>
       </c>
       <c r="E228" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>DATA-SWITCH 2/1 MANUALE---14000</v>
+        <f t="shared" si="7"/>
+        <v>DATA-SWITCH 2/1 MANUALE---14.000,00 €</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -10693,12 +10650,12 @@
         <v>23000</v>
       </c>
       <c r="D229" s="26">
-        <f>C229*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>4600</v>
       </c>
       <c r="E229" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>DATA-SWITCH 2/2 MANUALE---23000</v>
+        <f t="shared" si="7"/>
+        <v>DATA-SWITCH 2/2 MANUALE---23.000,00 €</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -10712,12 +10669,12 @@
         <v>51000</v>
       </c>
       <c r="D230" s="26">
-        <f>C230*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>10200</v>
       </c>
       <c r="E230" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>DATA-SWITCH 2/1 BIDIREZ.---51000</v>
+        <f t="shared" si="7"/>
+        <v>DATA-SWITCH 2/1 BIDIREZ.---51.000,00 €</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -10726,12 +10683,12 @@
       </c>
       <c r="C231" s="29"/>
       <c r="D231" s="26">
-        <f>C231*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E231" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>SOFTWARE---</v>
+        <f t="shared" si="7"/>
+        <v>SOFTWARE---0,00 €</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -10745,12 +10702,12 @@
         <v>198000</v>
       </c>
       <c r="D232" s="26">
-        <f>C232*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>39600</v>
       </c>
       <c r="E232" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>COMBO DOS6.22+WIN3.11+DSK.MAN.---198000</v>
+        <f t="shared" si="7"/>
+        <v>COMBO DOS6.22+WIN3.11+DSK.MAN.---198.000,00 €</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -10764,12 +10721,12 @@
         <v>167000</v>
       </c>
       <c r="D233" s="26">
-        <f>C233*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>33400</v>
       </c>
       <c r="E233" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>WINDOWS 95, MANUALI + CD---167000</v>
+        <f t="shared" si="7"/>
+        <v>WINDOWS 95, MANUALI + CD---167.000,00 €</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -10783,12 +10740,12 @@
         <v>95000</v>
       </c>
       <c r="D234" s="26">
-        <f>C234*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>19000</v>
       </c>
       <c r="E234" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>LICENZA STUDENTE SISTEMI ---95000</v>
+        <f t="shared" si="7"/>
+        <v>LICENZA STUDENTE SISTEMI ---95.000,00 €</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -10802,12 +10759,12 @@
         <v>141000</v>
       </c>
       <c r="D235" s="26">
-        <f>C235*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>28200</v>
       </c>
       <c r="E235" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>LICENZA STUDENTE APPLICAZIONI---141000</v>
+        <f t="shared" si="7"/>
+        <v>LICENZA STUDENTE APPLICAZIONI---141.000,00 €</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -10821,12 +10778,12 @@
         <v>351000</v>
       </c>
       <c r="D236" s="26">
-        <f>C236*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>70200</v>
       </c>
       <c r="E236" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>WIN NT WORKSTATION 4.0---351000</v>
+        <f t="shared" si="7"/>
+        <v>WIN NT WORKSTATION 4.0---351.000,00 €</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -10840,12 +10797,12 @@
         <v>414000</v>
       </c>
       <c r="D237" s="26">
-        <f>C237*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>82800</v>
       </c>
       <c r="E237" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OFFICE SMALL BUSINESS---414000</v>
+        <f t="shared" si="7"/>
+        <v>OFFICE SMALL BUSINESS---414.000,00 €</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -10859,12 +10816,12 @@
         <v>61000</v>
       </c>
       <c r="D238" s="26">
-        <f>C238*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>12200</v>
       </c>
       <c r="E238" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>WORKS 4.5 ITA, MANUALI + CD---61000</v>
+        <f t="shared" si="7"/>
+        <v>WORKS 4.5 ITA, MANUALI + CD---61.000,00 €</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -10878,12 +10835,12 @@
         <v>893000</v>
       </c>
       <c r="D239" s="26">
-        <f>C239*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>178600</v>
       </c>
       <c r="E239" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>FIVE PACK WIN 95---893000</v>
+        <f t="shared" si="7"/>
+        <v>FIVE PACK WIN 95---893.000,00 €</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -10897,12 +10854,12 @@
         <v>985000</v>
       </c>
       <c r="D240" s="26">
-        <f>C240*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>197000</v>
       </c>
       <c r="E240" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>FIVE PACK COMBO WIN3.11-DOS---985000</v>
+        <f t="shared" si="7"/>
+        <v>FIVE PACK COMBO WIN3.11-DOS---985.000,00 €</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -10916,12 +10873,12 @@
         <v>296000</v>
       </c>
       <c r="D241" s="26">
-        <f>C241*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>59200</v>
       </c>
       <c r="E241" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>FIVE PACK WORKS 4.5---296000</v>
+        <f t="shared" si="7"/>
+        <v>FIVE PACK WORKS 4.5---296.000,00 €</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -10935,12 +10892,12 @@
         <v>685000</v>
       </c>
       <c r="D242" s="26">
-        <f>C242*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>137000</v>
       </c>
       <c r="E242" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>3-PACK  HOME ESSENTIALS 98---685000</v>
+        <f t="shared" si="7"/>
+        <v>3-PACK  HOME ESSENTIALS 98---685.000,00 €</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -10954,12 +10911,12 @@
         <v>1138000</v>
       </c>
       <c r="D243" s="26">
-        <f>C243*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>227600</v>
       </c>
       <c r="E243" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>3-PACK WIN NT WORKSTATION 4.0---1138000</v>
+        <f t="shared" si="7"/>
+        <v>3-PACK WIN NT WORKSTATION 4.0---1.138.000,00 €</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -10973,12 +10930,12 @@
         <v>1334000</v>
       </c>
       <c r="D244" s="26">
-        <f>C244*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>266800</v>
       </c>
       <c r="E244" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>3-PACK OFFICE SMALL BUSINESS---1334000</v>
+        <f t="shared" si="7"/>
+        <v>3-PACK OFFICE SMALL BUSINESS---1.334.000,00 €</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -10992,12 +10949,12 @@
         <v>30000</v>
       </c>
       <c r="D245" s="26">
-        <f>C245*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>6000</v>
       </c>
       <c r="E245" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>CD VIDEOGUIDA  WIN'95---30000</v>
+        <f t="shared" si="7"/>
+        <v>CD VIDEOGUIDA  WIN'95---30.000,00 €</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -11011,12 +10968,12 @@
         <v>30000</v>
       </c>
       <c r="D246" s="26">
-        <f>C246*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>6000</v>
       </c>
       <c r="E246" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>CD VIDEGUIDA INTERNET---30000</v>
+        <f t="shared" si="7"/>
+        <v>CD VIDEGUIDA INTERNET---30.000,00 €</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -11030,12 +10987,12 @@
         <v>406000</v>
       </c>
       <c r="D247" s="26">
-        <f>C247*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>81200</v>
       </c>
       <c r="E247" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>WINDOWS 95 ---406000</v>
+        <f t="shared" si="7"/>
+        <v>WINDOWS 95 ---406.000,00 €</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -11049,12 +11006,12 @@
         <v>197000</v>
       </c>
       <c r="D248" s="26">
-        <f>C248*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>39400</v>
       </c>
       <c r="E248" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>WINDOWS 95 Lic. Agg.---197000</v>
+        <f t="shared" si="7"/>
+        <v>WINDOWS 95 Lic. Agg.---197.000,00 €</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -11068,12 +11025,12 @@
         <v>645000</v>
       </c>
       <c r="D249" s="26">
-        <f>C249*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>129000</v>
       </c>
       <c r="E249" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>EXCEL 7.0---645000</v>
+        <f t="shared" si="7"/>
+        <v>EXCEL 7.0---645.000,00 €</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -11087,12 +11044,12 @@
         <v>645000</v>
       </c>
       <c r="D250" s="26">
-        <f>C250*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>129000</v>
       </c>
       <c r="E250" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>EXCEL 97---645000</v>
+        <f t="shared" si="7"/>
+        <v>EXCEL 97---645.000,00 €</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -11106,12 +11063,12 @@
         <v>259000</v>
       </c>
       <c r="D251" s="26">
-        <f>C251*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>51800</v>
       </c>
       <c r="E251" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>EXCEL 97 Agg.---259000</v>
+        <f t="shared" si="7"/>
+        <v>EXCEL 97 Agg.---259.000,00 €</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -11125,12 +11082,12 @@
         <v>646000</v>
       </c>
       <c r="D252" s="26">
-        <f>C252*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>129200</v>
       </c>
       <c r="E252" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>WORD 97---646000</v>
+        <f t="shared" si="7"/>
+        <v>WORD 97---646.000,00 €</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -11144,12 +11101,12 @@
         <v>259000</v>
       </c>
       <c r="D253" s="26">
-        <f>C253*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>51800</v>
       </c>
       <c r="E253" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>WORD 97 Agg.---259000</v>
+        <f t="shared" si="7"/>
+        <v>WORD 97 Agg.---259.000,00 €</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -11163,12 +11120,12 @@
         <v>645000</v>
       </c>
       <c r="D254" s="26">
-        <f>C254*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>129000</v>
       </c>
       <c r="E254" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>ACCESS 97---645000</v>
+        <f t="shared" si="7"/>
+        <v>ACCESS 97---645.000,00 €</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -11182,12 +11139,12 @@
         <v>879000</v>
       </c>
       <c r="D255" s="26">
-        <f>C255*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>175800</v>
       </c>
       <c r="E255" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OFFICE 97 SMALL BUSINESS---879000</v>
+        <f t="shared" si="7"/>
+        <v>OFFICE 97 SMALL BUSINESS---879.000,00 €</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -11201,12 +11158,12 @@
         <v>259000</v>
       </c>
       <c r="D256" s="26">
-        <f>C256*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>51800</v>
       </c>
       <c r="E256" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>HOME ESSENTIALS 98---259000</v>
+        <f t="shared" si="7"/>
+        <v>HOME ESSENTIALS 98---259.000,00 €</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -11220,12 +11177,12 @@
         <v>274000</v>
       </c>
       <c r="D257" s="26">
-        <f>C257*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>54800</v>
       </c>
       <c r="E257" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>FRONTPAGE 98---274000</v>
+        <f t="shared" si="7"/>
+        <v>FRONTPAGE 98---274.000,00 €</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -11239,12 +11196,12 @@
         <v>975000</v>
       </c>
       <c r="D258" s="26">
-        <f>C258*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>195000</v>
       </c>
       <c r="E258" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OFFICE '97---975000</v>
+        <f t="shared" si="7"/>
+        <v>OFFICE '97---975.000,00 €</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -11258,12 +11215,12 @@
         <v>480000</v>
       </c>
       <c r="D259" s="26">
-        <f>C259*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>96000</v>
       </c>
       <c r="E259" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OFFICE '97 Agg.---480000</v>
+        <f t="shared" si="7"/>
+        <v>OFFICE '97 Agg.---480.000,00 €</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -11277,12 +11234,12 @@
         <v>1187000</v>
       </c>
       <c r="D260" s="26">
-        <f>C260*IVATOT</f>
+        <f t="shared" si="6"/>
         <v>237400</v>
       </c>
       <c r="E260" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OFFICE '97 Professional---1187000</v>
+        <f t="shared" si="7"/>
+        <v>OFFICE '97 Professional---1.187.000,00 €</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -11296,12 +11253,12 @@
         <v>832000</v>
       </c>
       <c r="D261" s="26">
-        <f>C261*IVATOT</f>
+        <f t="shared" ref="D261:D324" si="8">C261*IVATOT</f>
         <v>166400</v>
       </c>
       <c r="E261" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OFFICE '97 Professional Agg.---832000</v>
+        <f t="shared" si="7"/>
+        <v>OFFICE '97 Professional Agg.---832.000,00 €</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -11315,12 +11272,12 @@
         <v>227000</v>
       </c>
       <c r="D262" s="26">
-        <f>C262*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>45400</v>
       </c>
       <c r="E262" s="10" t="str">
-        <f t="shared" ref="E262:E325" si="4">A262&amp;"---"&amp;C262</f>
-        <v>VISUAL BASIC 4.0 STD---227000</v>
+        <f t="shared" ref="E262:E325" si="9">A262&amp;"---"&amp;DOLLAR(C262)</f>
+        <v>VISUAL BASIC 4.0 STD---227.000,00 €</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -11334,12 +11291,12 @@
         <v>98000</v>
       </c>
       <c r="D263" s="26">
-        <f>C263*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>19600</v>
       </c>
       <c r="E263" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>VISUAL BASIC 4.0 Agg.---98000</v>
+        <f t="shared" si="9"/>
+        <v>VISUAL BASIC 4.0 Agg.---98.000,00 €</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -11353,12 +11310,12 @@
         <v>1190000</v>
       </c>
       <c r="D264" s="26">
-        <f>C264*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>238000</v>
       </c>
       <c r="E264" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>VISUAL BASIC 4.0 PROFESSIONAL---1190000</v>
+        <f t="shared" si="9"/>
+        <v>VISUAL BASIC 4.0 PROFESSIONAL---1.190.000,00 €</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -11372,12 +11329,12 @@
         <v>300000</v>
       </c>
       <c r="D265" s="26">
-        <f>C265*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>60000</v>
       </c>
       <c r="E265" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>VISUAL BASIC 4.0 PROF. Agg.---300000</v>
+        <f t="shared" si="9"/>
+        <v>VISUAL BASIC 4.0 PROF. Agg.---300.000,00 €</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -11391,12 +11348,12 @@
         <v>2407000</v>
       </c>
       <c r="D266" s="26">
-        <f>C266*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>481400</v>
       </c>
       <c r="E266" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>VISUAL BASIC 4.0 ENTERPRICE---2407000</v>
+        <f t="shared" si="9"/>
+        <v>VISUAL BASIC 4.0 ENTERPRICE---2.407.000,00 €</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -11410,12 +11367,12 @@
         <v>1021000</v>
       </c>
       <c r="D267" s="26">
-        <f>C267*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>204200</v>
       </c>
       <c r="E267" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>VISUAL BASIC 4.0 ENTERPRICE Agg.---1021000</v>
+        <f t="shared" si="9"/>
+        <v>VISUAL BASIC 4.0 ENTERPRICE Agg.---1.021.000,00 €</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -11429,12 +11386,12 @@
         <v>646000</v>
       </c>
       <c r="D268" s="26">
-        <f>C268*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>129200</v>
       </c>
       <c r="E268" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>POWERPOINT 97---646000</v>
+        <f t="shared" si="9"/>
+        <v>POWERPOINT 97---646.000,00 €</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -11448,12 +11405,12 @@
         <v>259000</v>
       </c>
       <c r="D269" s="26">
-        <f>C269*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>51800</v>
       </c>
       <c r="E269" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>POWERPOINT 97 Agg.---259000</v>
+        <f t="shared" si="9"/>
+        <v>POWERPOINT 97 Agg.---259.000,00 €</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -11467,12 +11424,12 @@
         <v>193000</v>
       </c>
       <c r="D270" s="26">
-        <f>C270*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>38600</v>
       </c>
       <c r="E270" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>PUBLISHER 3.0---193000</v>
+        <f t="shared" si="9"/>
+        <v>PUBLISHER 3.0---193.000,00 €</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -11486,12 +11443,12 @@
         <v>96000</v>
       </c>
       <c r="D271" s="26">
-        <f>C271*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>19200</v>
       </c>
       <c r="E271" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>PUBLISHER 3.0 Agg.---96000</v>
+        <f t="shared" si="9"/>
+        <v>PUBLISHER 3.0 Agg.---96.000,00 €</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -11505,12 +11462,12 @@
         <v>594000</v>
       </c>
       <c r="D272" s="26">
-        <f>C272*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>118800</v>
       </c>
       <c r="E272" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>WINDOWS NT 4.0 WORKSTATION---594000</v>
+        <f t="shared" si="9"/>
+        <v>WINDOWS NT 4.0 WORKSTATION---594.000,00 €</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -11524,12 +11481,12 @@
         <v>282000</v>
       </c>
       <c r="D273" s="26">
-        <f>C273*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>56400</v>
       </c>
       <c r="E273" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>WINDOWS NT 4.0 Agg. WORKSTATION---282000</v>
+        <f t="shared" si="9"/>
+        <v>WINDOWS NT 4.0 Agg. WORKSTATION---282.000,00 €</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -11543,12 +11500,12 @@
         <v>1814000</v>
       </c>
       <c r="D274" s="26">
-        <f>C274*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>362800</v>
       </c>
       <c r="E274" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>WINDOWS NT 4.0 SERVER 5 client---1814000</v>
+        <f t="shared" si="9"/>
+        <v>WINDOWS NT 4.0 SERVER 5 client---1.814.000,00 €</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -11562,12 +11519,12 @@
         <v>193000</v>
       </c>
       <c r="D275" s="26">
-        <f>C275*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>38600</v>
       </c>
       <c r="E275" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>WINDOWS 3.1---193000</v>
+        <f t="shared" si="9"/>
+        <v>WINDOWS 3.1---193.000,00 €</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -11581,12 +11538,12 @@
         <v>654000</v>
       </c>
       <c r="D276" s="26">
-        <f>C276*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>130800</v>
       </c>
       <c r="E276" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>POWERPOINT 4.0---654000</v>
+        <f t="shared" si="9"/>
+        <v>POWERPOINT 4.0---654.000,00 €</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -11600,12 +11557,12 @@
         <v>729000</v>
       </c>
       <c r="D277" s="26">
-        <f>C277*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>145800</v>
       </c>
       <c r="E277" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>EXCEL 5.0---729000</v>
+        <f t="shared" si="9"/>
+        <v>EXCEL 5.0---729.000,00 €</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -11619,12 +11576,12 @@
         <v>632000</v>
       </c>
       <c r="D278" s="26">
-        <f>C278*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>126400</v>
       </c>
       <c r="E278" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>ACCESS 2.0---632000</v>
+        <f t="shared" si="9"/>
+        <v>ACCESS 2.0---632.000,00 €</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -11638,12 +11595,12 @@
         <v>240000</v>
       </c>
       <c r="D279" s="26">
-        <f>C279*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>48000</v>
       </c>
       <c r="E279" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>ACCESS 2.0 Competitivo---240000</v>
+        <f t="shared" si="9"/>
+        <v>ACCESS 2.0 Competitivo---240.000,00 €</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -11657,12 +11614,12 @@
         <v>955000</v>
       </c>
       <c r="D280" s="26">
-        <f>C280*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>191000</v>
       </c>
       <c r="E280" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>OFFICE 4.2---955000</v>
+        <f t="shared" si="9"/>
+        <v>OFFICE 4.2---955.000,00 €</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -11676,12 +11633,12 @@
         <v>1126000</v>
       </c>
       <c r="D281" s="26">
-        <f>C281*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>225200</v>
       </c>
       <c r="E281" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>OFFICE 4.3 PROFESSIONAL---1126000</v>
+        <f t="shared" si="9"/>
+        <v>OFFICE 4.3 PROFESSIONAL---1.126.000,00 €</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -11690,12 +11647,12 @@
       </c>
       <c r="C282" s="29"/>
       <c r="D282" s="26">
-        <f>C282*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E282" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMPANTI---</v>
+        <f t="shared" si="9"/>
+        <v>STAMPANTI---0,00 €</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -11709,12 +11666,12 @@
         <v>297000</v>
       </c>
       <c r="D283" s="26">
-        <f>C283*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>59400</v>
       </c>
       <c r="E283" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON LX300---297000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON LX300---297.000,00 €</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -11728,12 +11685,12 @@
         <v>646000</v>
       </c>
       <c r="D284" s="26">
-        <f>C284*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>129200</v>
       </c>
       <c r="E284" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON LX1050+---646000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON LX1050+---646.000,00 €</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -11747,12 +11704,12 @@
         <v>714000</v>
       </c>
       <c r="D285" s="26">
-        <f>C285*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>142800</v>
       </c>
       <c r="E285" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON FX870---714000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON FX870---714.000,00 €</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -11766,12 +11723,12 @@
         <v>807000</v>
       </c>
       <c r="D286" s="26">
-        <f>C286*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>161400</v>
       </c>
       <c r="E286" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON FX1170---807000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON FX1170---807.000,00 €</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -11785,12 +11742,12 @@
         <v>591000</v>
       </c>
       <c r="D287" s="26">
-        <f>C287*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>118200</v>
       </c>
       <c r="E287" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON LQ570+---591000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON LQ570+---591.000,00 €</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -11804,12 +11761,12 @@
         <v>918000</v>
       </c>
       <c r="D288" s="26">
-        <f>C288*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>183600</v>
       </c>
       <c r="E288" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON LQ2070+---918000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON LQ2070+---918.000,00 €</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -11823,12 +11780,12 @@
         <v>1265000</v>
       </c>
       <c r="D289" s="26">
-        <f>C289*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>253000</v>
       </c>
       <c r="E289" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON LQ 2170---1265000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON LQ 2170---1.265.000,00 €</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -11842,12 +11799,12 @@
         <v>256000</v>
       </c>
       <c r="D290" s="26">
-        <f>C290*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>51200</v>
       </c>
       <c r="E290" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON STYLUS 300COLOR---256000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON STYLUS 300COLOR---256.000,00 €</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -11861,12 +11818,12 @@
         <v>371000</v>
       </c>
       <c r="D291" s="26">
-        <f>C291*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>74200</v>
       </c>
       <c r="E291" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON STYLUS 400COLOR---371000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON STYLUS 400COLOR---371.000,00 €</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -11880,12 +11837,12 @@
         <v>457000</v>
       </c>
       <c r="D292" s="26">
-        <f>C292*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>91400</v>
       </c>
       <c r="E292" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON STYLUS 600COLOR---457000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON STYLUS 600COLOR---457.000,00 €</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -11899,12 +11856,12 @@
         <v>642000</v>
       </c>
       <c r="D293" s="26">
-        <f>C293*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>128400</v>
       </c>
       <c r="E293" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON STYLUS 800COLOR---642000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON STYLUS 800COLOR---642.000,00 €</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -11918,12 +11875,12 @@
         <v>1571000</v>
       </c>
       <c r="D294" s="26">
-        <f>C294*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>314200</v>
       </c>
       <c r="E294" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON STYLUS 1520COLOR---1571000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON STYLUS 1520COLOR---1.571.000,00 €</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -11937,12 +11894,12 @@
         <v>756000</v>
       </c>
       <c r="D295" s="26">
-        <f>C295*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>151200</v>
       </c>
       <c r="E295" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON STYLUS 1000---756000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON STYLUS 1000---756.000,00 €</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -11956,12 +11913,12 @@
         <v>1571000</v>
       </c>
       <c r="D296" s="26">
-        <f>C296*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>314200</v>
       </c>
       <c r="E296" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON STYLUS PRO XL+---1571000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON STYLUS PRO XL+---1.571.000,00 €</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -11975,12 +11932,12 @@
         <v>2716000</v>
       </c>
       <c r="D297" s="26">
-        <f>C297*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>543200</v>
       </c>
       <c r="E297" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON STYLUS  3000---2716000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON STYLUS  3000---2.716.000,00 €</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -11994,12 +11951,12 @@
         <v>640000</v>
       </c>
       <c r="D298" s="26">
-        <f>C298*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>128000</v>
       </c>
       <c r="E298" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP.EPSON STYLUS PHOTO---640000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP.EPSON STYLUS PHOTO---640.000,00 €</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -12013,12 +11970,12 @@
         <v>255000</v>
       </c>
       <c r="D299" s="26">
-        <f>C299*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>51000</v>
       </c>
       <c r="E299" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. CANON BJ-250 COLOR---255000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. CANON BJ-250 COLOR---255.000,00 €</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -12032,12 +11989,12 @@
         <v>413000</v>
       </c>
       <c r="D300" s="26">
-        <f>C300*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>82600</v>
       </c>
       <c r="E300" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. CANON BJC-80 COLOR---413000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. CANON BJC-80 COLOR---413.000,00 €</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -12051,12 +12008,12 @@
         <v>361000</v>
       </c>
       <c r="D301" s="26">
-        <f>C301*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>72200</v>
       </c>
       <c r="E301" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. CANON BJC-4300 COLOR---361000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. CANON BJC-4300 COLOR---361.000,00 €</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -12070,12 +12027,12 @@
         <v>544000</v>
       </c>
       <c r="D302" s="26">
-        <f>C302*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>108800</v>
       </c>
       <c r="E302" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. CANON BJC-4550 COLOR---544000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. CANON BJC-4550 COLOR---544.000,00 €</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -12089,12 +12046,12 @@
         <v>678000</v>
       </c>
       <c r="D303" s="26">
-        <f>C303*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>135600</v>
       </c>
       <c r="E303" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. CANON BJC-4650 COLOR---678000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. CANON BJC-4650 COLOR---678.000,00 €</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -12108,12 +12065,12 @@
         <v>1054000</v>
       </c>
       <c r="D304" s="26">
-        <f>C304*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>210800</v>
       </c>
       <c r="E304" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. CANON BJC-5500 COLOR---1054000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. CANON BJC-5500 COLOR---1.054.000,00 €</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -12127,12 +12084,12 @@
         <v>482000</v>
       </c>
       <c r="D305" s="26">
-        <f>C305*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>96400</v>
       </c>
       <c r="E305" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. CANON BJC-620 COLOR---482000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. CANON BJC-620 COLOR---482.000,00 €</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -12146,12 +12103,12 @@
         <v>722000</v>
       </c>
       <c r="D306" s="26">
-        <f>C306*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>144400</v>
       </c>
       <c r="E306" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. CANON BJC-7000 COLOR---722000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. CANON BJC-7000 COLOR---722.000,00 €</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -12165,12 +12122,12 @@
         <v>269000</v>
       </c>
       <c r="D307" s="26">
-        <f>C307*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>53800</v>
       </c>
       <c r="E307" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. HP 400L---269000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. HP 400L---269.000,00 €</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -12184,12 +12141,12 @@
         <v>371000</v>
       </c>
       <c r="D308" s="26">
-        <f>C308*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>74200</v>
       </c>
       <c r="E308" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. HP 670---371000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. HP 670---371.000,00 €</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -12203,12 +12160,12 @@
         <v>462000</v>
       </c>
       <c r="D309" s="26">
-        <f>C309*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>92400</v>
       </c>
       <c r="E309" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. HP 690+---462000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. HP 690+---462.000,00 €</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -12222,12 +12179,12 @@
         <v>541000</v>
       </c>
       <c r="D310" s="26">
-        <f>C310*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>108200</v>
       </c>
       <c r="E310" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. HP 720C---541000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. HP 720C---541.000,00 €</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -12241,12 +12198,12 @@
         <v>648000</v>
       </c>
       <c r="D311" s="26">
-        <f>C311*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>129600</v>
       </c>
       <c r="E311" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. HP 870 CXI---648000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. HP 870 CXI---648.000,00 €</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -12260,12 +12217,12 @@
         <v>644000</v>
       </c>
       <c r="D312" s="26">
-        <f>C312*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>128800</v>
       </c>
       <c r="E312" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. HP 890C---644000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. HP 890C---644.000,00 €</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -12279,12 +12236,12 @@
         <v>902000</v>
       </c>
       <c r="D313" s="26">
-        <f>C313*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>180400</v>
       </c>
       <c r="E313" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. HP 1100C---902000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. HP 1100C---902.000,00 €</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -12298,12 +12255,12 @@
         <v>722000</v>
       </c>
       <c r="D314" s="26">
-        <f>C314*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>144400</v>
       </c>
       <c r="E314" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. HP 6L---722000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. HP 6L---722.000,00 €</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -12317,12 +12274,12 @@
         <v>1457000</v>
       </c>
       <c r="D315" s="26">
-        <f>C315*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>291400</v>
       </c>
       <c r="E315" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. HP 6P---1457000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. HP 6P---1.457.000,00 €</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -12336,12 +12293,12 @@
         <v>1786000</v>
       </c>
       <c r="D316" s="26">
-        <f>C316*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>357200</v>
       </c>
       <c r="E316" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>STAMP. HP 6MP---1786000</v>
+        <f t="shared" si="9"/>
+        <v>STAMP. HP 6MP---1.786.000,00 €</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -12350,12 +12307,12 @@
       </c>
       <c r="C317" s="29"/>
       <c r="D317" s="26">
-        <f>C317*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E317" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>CABINATI ---</v>
+        <f t="shared" si="9"/>
+        <v>CABINATI ---0,00 €</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -12369,12 +12326,12 @@
         <v>85000</v>
       </c>
       <c r="D318" s="26">
-        <f>C318*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>17000</v>
       </c>
       <c r="E318" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>CASE DESKTOP   CE CK 131-6---85000</v>
+        <f t="shared" si="9"/>
+        <v>CASE DESKTOP   CE CK 131-6---85.000,00 €</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -12388,12 +12345,12 @@
         <v>84000</v>
       </c>
       <c r="D319" s="26">
-        <f>C319*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>16800</v>
       </c>
       <c r="E319" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>CASE MINITOWER CE CK 136-1---84000</v>
+        <f t="shared" si="9"/>
+        <v>CASE MINITOWER CE CK 136-1---84.000,00 €</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -12407,12 +12364,12 @@
         <v>115000</v>
       </c>
       <c r="D320" s="26">
-        <f>C320*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>23000</v>
       </c>
       <c r="E320" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>CASE MIDITOWER CE CK 135-1---115000</v>
+        <f t="shared" si="9"/>
+        <v>CASE MIDITOWER CE CK 135-1---115.000,00 €</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -12426,12 +12383,12 @@
         <v>152000</v>
       </c>
       <c r="D321" s="26">
-        <f>C321*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>30400</v>
       </c>
       <c r="E321" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>CASE BIG TOWER CE   CK139-1---152000</v>
+        <f t="shared" si="9"/>
+        <v>CASE BIG TOWER CE   CK139-1---152.000,00 €</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -12445,12 +12402,12 @@
         <v>82000</v>
       </c>
       <c r="D322" s="26">
-        <f>C322*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>16400</v>
       </c>
       <c r="E322" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>CASE DESKTOP CE CK 131-8---82000</v>
+        <f t="shared" si="9"/>
+        <v>CASE DESKTOP CE CK 131-8---82.000,00 €</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -12464,12 +12421,12 @@
         <v>84000</v>
       </c>
       <c r="D323" s="26">
-        <f>C323*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>16800</v>
       </c>
       <c r="E323" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>CASE SUB-MIDITOWER CE  CK 132-3---84000</v>
+        <f t="shared" si="9"/>
+        <v>CASE SUB-MIDITOWER CE  CK 132-3---84.000,00 €</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -12483,12 +12440,12 @@
         <v>115000</v>
       </c>
       <c r="D324" s="26">
-        <f>C324*IVATOT</f>
+        <f t="shared" si="8"/>
         <v>23000</v>
       </c>
       <c r="E324" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>CASE  MIDITOWER CE  CK 135-2---115000</v>
+        <f t="shared" si="9"/>
+        <v>CASE  MIDITOWER CE  CK 135-2---115.000,00 €</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -12502,12 +12459,12 @@
         <v>153000</v>
       </c>
       <c r="D325" s="26">
-        <f>C325*IVATOT</f>
+        <f t="shared" ref="D325:D388" si="10">C325*IVATOT</f>
         <v>30600</v>
       </c>
       <c r="E325" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>CASE TOWER CE CK 139-2---153000</v>
+        <f t="shared" si="9"/>
+        <v>CASE TOWER CE CK 139-2---153.000,00 €</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -12521,12 +12478,12 @@
         <v>80000</v>
       </c>
       <c r="D326" s="26">
-        <f>C326*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>16000</v>
       </c>
       <c r="E326" s="10" t="str">
-        <f t="shared" ref="E326:E340" si="5">A326&amp;"---"&amp;C326</f>
-        <v>CASE MIDITOWER BC VIP 432---80000</v>
+        <f t="shared" ref="E326:E340" si="11">A326&amp;"---"&amp;DOLLAR(C326)</f>
+        <v>CASE MIDITOWER BC VIP 432---80.000,00 €</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -12540,12 +12497,12 @@
         <v>102000</v>
       </c>
       <c r="D327" s="26">
-        <f>C327*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>20400</v>
       </c>
       <c r="E327" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>CASE TOWER BC VIP 730---102000</v>
+        <f t="shared" si="11"/>
+        <v>CASE TOWER BC VIP 730---102.000,00 €</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -12554,12 +12511,12 @@
       </c>
       <c r="C328" s="29"/>
       <c r="D328" s="26">
-        <f>C328*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E328" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GRUPPI DI CONTINUITA'---</v>
+        <f t="shared" si="11"/>
+        <v>GRUPPI DI CONTINUITA'---0,00 €</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -12573,12 +12530,12 @@
         <v>198000</v>
       </c>
       <c r="D329" s="26">
-        <f>C329*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>39600</v>
       </c>
       <c r="E329" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GR.CONT.REVOLUTION E300 ---198000</v>
+        <f t="shared" si="11"/>
+        <v>GR.CONT.REVOLUTION E300 ---198.000,00 €</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -12592,12 +12549,12 @@
         <v>233000</v>
       </c>
       <c r="D330" s="26">
-        <f>C330*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>46600</v>
       </c>
       <c r="E330" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GR.CONT.REVOLUTION F450---233000</v>
+        <f t="shared" si="11"/>
+        <v>GR.CONT.REVOLUTION F450---233.000,00 €</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -12611,12 +12568,12 @@
         <v>279000</v>
       </c>
       <c r="D331" s="26">
-        <f>C331*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>55800</v>
       </c>
       <c r="E331" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GR.CONT.REVOLUTION L600---279000</v>
+        <f t="shared" si="11"/>
+        <v>GR.CONT.REVOLUTION L600---279.000,00 €</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -12630,12 +12587,12 @@
         <v>298000</v>
       </c>
       <c r="D332" s="26">
-        <f>C332*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>59600</v>
       </c>
       <c r="E332" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GR.CONT.POWER PRO 600---298000</v>
+        <f t="shared" si="11"/>
+        <v>GR.CONT.POWER PRO 600---298.000,00 €</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -12649,12 +12606,12 @@
         <v>478000</v>
       </c>
       <c r="D333" s="26">
-        <f>C333*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>95600</v>
       </c>
       <c r="E333" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GR.CONT.POWER PRO 750---478000</v>
+        <f t="shared" si="11"/>
+        <v>GR.CONT.POWER PRO 750---478.000,00 €</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -12668,12 +12625,12 @@
         <v>626000</v>
       </c>
       <c r="D334" s="26">
-        <f>C334*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>125200</v>
       </c>
       <c r="E334" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GR.CONT.POWER PRO 900---626000</v>
+        <f t="shared" si="11"/>
+        <v>GR.CONT.POWER PRO 900---626.000,00 €</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -12687,12 +12644,12 @@
         <v>757000</v>
       </c>
       <c r="D335" s="26">
-        <f>C335*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>151400</v>
       </c>
       <c r="E335" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GR.CONT.POWER PRO 1000---757000</v>
+        <f t="shared" si="11"/>
+        <v>GR.CONT.POWER PRO 1000---757.000,00 €</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -12706,12 +12663,12 @@
         <v>1128000</v>
       </c>
       <c r="D336" s="26">
-        <f>C336*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>225600</v>
       </c>
       <c r="E336" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GR.CONT.POWER PRO 1600---1128000</v>
+        <f t="shared" si="11"/>
+        <v>GR.CONT.POWER PRO 1600---1.128.000,00 €</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -12725,12 +12682,12 @@
         <v>1527000</v>
       </c>
       <c r="D337" s="26">
-        <f>C337*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>305400</v>
       </c>
       <c r="E337" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GR.CONT.POWER PRO 2400---1527000</v>
+        <f t="shared" si="11"/>
+        <v>GR.CONT.POWER PRO 2400---1.527.000,00 €</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -12744,12 +12701,12 @@
         <v>4134000</v>
       </c>
       <c r="D338" s="26">
-        <f>C338*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>826800</v>
       </c>
       <c r="E338" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GR.CONT.POWERSAVE 4000---4134000</v>
+        <f t="shared" si="11"/>
+        <v>GR.CONT.POWERSAVE 4000---4.134.000,00 €</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -12763,12 +12720,12 @@
         <v>6850000</v>
       </c>
       <c r="D339" s="26">
-        <f>C339*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>1370000</v>
       </c>
       <c r="E339" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GR.CONT.POWERSAVE 7500---6850000</v>
+        <f t="shared" si="11"/>
+        <v>GR.CONT.POWERSAVE 7500---6.850.000,00 €</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -12782,12 +12739,12 @@
         <v>11712000</v>
       </c>
       <c r="D340" s="26">
-        <f>C340*IVATOT</f>
+        <f t="shared" si="10"/>
         <v>2342400</v>
       </c>
       <c r="E340" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>GR.CONT.POWERSAVE 12500---11712000</v>
+        <f t="shared" si="11"/>
+        <v>GR.CONT.POWERSAVE 12500---11.712.000,00 €</v>
       </c>
     </row>
   </sheetData>
@@ -13110,7 +13067,7 @@
       <c r="F6" s="16">
         <v>70</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="10" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="15" t="s">
@@ -13264,16 +13221,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Buono"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Discreto"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Sufficiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Respinto"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13309,7 +13266,7 @@
   <dimension ref="C1:J16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -13325,12 +13282,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
@@ -13354,11 +13311,11 @@
         <v>266</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H4" s="13">
         <f>_xlfn.XLOOKUP(G4,spesemese[MESE],spesemese[SPESA])</f>
-        <v>249</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
@@ -13453,10 +13410,10 @@
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="58">
         <f>SUBTOTAL(109,spesemese[SPESA])</f>
         <v>4426</v>
       </c>
@@ -13559,46 +13516,46 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="67" t="s">
         <v>649</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13613,8 +13570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="C7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -13780,7 +13737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>36548</v>
       </c>
@@ -13799,12 +13756,12 @@
       <c r="H8" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="51">
-        <f>COUNTIF(C2:C80,H8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="I8" s="70">
+        <f>COUNTIF(B2:B80,H8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>36551</v>
       </c>
@@ -13820,12 +13777,15 @@
       <c r="E9" s="3">
         <v>18</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="I9" s="70">
+        <f t="shared" ref="I9:I14" si="1">COUNTIF(B3:B81,H9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>36552</v>
       </c>
@@ -13841,12 +13801,15 @@
       <c r="E10" s="3">
         <v>23</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="I10" s="70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>36553</v>
       </c>
@@ -13862,12 +13825,15 @@
       <c r="E11" s="3">
         <v>24</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="53"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="I11" s="70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>36554</v>
       </c>
@@ -13883,12 +13849,15 @@
       <c r="E12" s="3">
         <v>27</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="53"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="I12" s="70">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>36555</v>
       </c>
@@ -13904,10 +13873,13 @@
       <c r="E13" s="3">
         <v>15</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="53"/>
+      <c r="I13" s="70">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
@@ -13925,10 +13897,13 @@
       <c r="E14" s="3">
         <v>17</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -15071,7 +15046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5:H10"/>
     </sheetView>
   </sheetViews>
@@ -15080,19 +15055,19 @@
     <col min="1" max="1" width="11.765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.4609375" customWidth="1"/>
+    <col min="5" max="5" width="11.765625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="14.84375" customWidth="1"/>
     <col min="11" max="11" width="23.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:11" ht="12.9" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="17.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
@@ -15152,11 +15127,11 @@
       <c r="E5" s="3">
         <v>25</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="56">
-        <f>SUMIF(C4:C26,G5,E4:E26)</f>
+      <c r="H5" s="53">
+        <f>SUMIF(Tabella4[tipo],G5,Tabella4[importo])</f>
         <v>893.5</v>
       </c>
     </row>
@@ -15176,12 +15151,12 @@
       <c r="E6" s="3">
         <v>69</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="56">
-        <f t="shared" ref="H6:H10" si="0">SUMIF(C5:C27,G6,E5:E27)</f>
-        <v>98</v>
+      <c r="H6" s="53">
+        <f>SUMIF(Tabella4[tipo],G6,Tabella4[importo])</f>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
@@ -15200,11 +15175,11 @@
       <c r="E7" s="3">
         <v>554</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="56">
-        <f t="shared" si="0"/>
+      <c r="H7" s="53">
+        <f>SUMIF(Tabella4[tipo],G7,Tabella4[importo])</f>
         <v>832</v>
       </c>
     </row>
@@ -15224,11 +15199,11 @@
       <c r="E8" s="3">
         <v>569</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="56">
-        <f t="shared" si="0"/>
+      <c r="H8" s="53">
+        <f>SUMIF(Tabella4[tipo],G8,Tabella4[importo])</f>
         <v>19</v>
       </c>
     </row>
@@ -15248,12 +15223,12 @@
       <c r="E9" s="3">
         <v>58</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="56">
-        <f t="shared" si="0"/>
-        <v>212</v>
+      <c r="H9" s="53">
+        <f>SUMIF(Tabella4[tipo],G9,Tabella4[importo])</f>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
@@ -15272,12 +15247,12 @@
       <c r="E10" s="3">
         <v>885</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="56">
-        <f t="shared" si="0"/>
-        <v>885</v>
+      <c r="H10" s="53">
+        <f>SUMIF(Tabella4[tipo],G10,Tabella4[importo])</f>
+        <v>1479</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -15557,6 +15532,9 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -15582,12 +15560,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="60" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
+      <c r="A2" s="60"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -15596,16 +15574,16 @@
       <c r="E4" s="23" t="s">
         <v>662</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="61">
         <f ca="1">TODAY()</f>
         <v>45107</v>
       </c>
-      <c r="G4" s="62"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -15661,12 +15639,12 @@
         <f>DAY(A7)</f>
         <v>1</v>
       </c>
-      <c r="H7" s="72">
-        <f ca="1">OGGI-A7</f>
+      <c r="H7" s="62">
+        <f t="shared" ref="H7:H29" ca="1" si="0">OGGI-A7</f>
         <v>7485</v>
       </c>
-      <c r="I7" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A7,OGGI,1)</f>
+      <c r="I7" s="62">
+        <f t="shared" ref="I7:I29" ca="1" si="1">NETWORKDAYS.INTL(A7,OGGI,1)</f>
         <v>5348</v>
       </c>
     </row>
@@ -15684,23 +15662,23 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E29" si="0">YEAR(A8)</f>
+        <f t="shared" ref="E8:E29" si="2">YEAR(A8)</f>
         <v>2002</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F29" si="1">MONTH(A8)</f>
+        <f t="shared" ref="F8:F29" si="3">MONTH(A8)</f>
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G29" si="2">DAY(A8)</f>
+        <f t="shared" ref="G8:G29" si="4">DAY(A8)</f>
         <v>5</v>
       </c>
-      <c r="H8" s="72">
-        <f ca="1">OGGI-A8</f>
+      <c r="H8" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7846</v>
       </c>
-      <c r="I8" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A8,OGGI,1)</f>
+      <c r="I8" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5605</v>
       </c>
     </row>
@@ -15718,23 +15696,23 @@
         <v>69</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2006</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H9" s="72">
-        <f ca="1">OGGI-A9</f>
+      <c r="H9" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>6389</v>
       </c>
-      <c r="I9" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A9,OGGI,1)</f>
+      <c r="I9" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>4565</v>
       </c>
     </row>
@@ -15752,23 +15730,23 @@
         <v>554</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="H10" s="72">
-        <f ca="1">OGGI-A10</f>
+      <c r="H10" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7473</v>
       </c>
-      <c r="I10" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A10,OGGI,1)</f>
+      <c r="I10" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5340</v>
       </c>
     </row>
@@ -15786,23 +15764,23 @@
         <v>569</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="H11" s="72">
-        <f ca="1">OGGI-A11</f>
+      <c r="H11" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7472</v>
       </c>
-      <c r="I11" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A11,OGGI,1)</f>
+      <c r="I11" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5339</v>
       </c>
     </row>
@@ -15820,23 +15798,23 @@
         <v>58</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="H12" s="72">
-        <f ca="1">OGGI-A12</f>
+      <c r="H12" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7465</v>
       </c>
-      <c r="I12" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A12,OGGI,1)</f>
+      <c r="I12" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5334</v>
       </c>
     </row>
@@ -15854,23 +15832,23 @@
         <v>885</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="H13" s="72">
-        <f ca="1">OGGI-A13</f>
+      <c r="H13" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7457</v>
       </c>
-      <c r="I13" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A13,OGGI,1)</f>
+      <c r="I13" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5328</v>
       </c>
     </row>
@@ -15888,23 +15866,23 @@
         <v>821</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H14" s="72">
-        <f ca="1">OGGI-A14</f>
+      <c r="H14" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7454</v>
       </c>
-      <c r="I14" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A14,OGGI,1)</f>
+      <c r="I14" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5325</v>
       </c>
     </row>
@@ -15922,23 +15900,23 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="H15" s="72">
-        <f ca="1">OGGI-A15</f>
+      <c r="H15" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7450</v>
       </c>
-      <c r="I15" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A15,OGGI,1)</f>
+      <c r="I15" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5323</v>
       </c>
     </row>
@@ -15956,23 +15934,23 @@
         <v>36</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H16" s="72">
-        <f ca="1">OGGI-A16</f>
+      <c r="H16" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7449</v>
       </c>
-      <c r="I16" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A16,OGGI,1)</f>
+      <c r="I16" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5322</v>
       </c>
     </row>
@@ -15990,23 +15968,23 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H17" s="72">
-        <f ca="1">OGGI-A17</f>
+      <c r="H17" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7444</v>
       </c>
-      <c r="I17" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A17,OGGI,1)</f>
+      <c r="I17" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5319</v>
       </c>
     </row>
@@ -16024,23 +16002,23 @@
         <v>266</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="H18" s="72">
-        <f ca="1">OGGI-A18</f>
+      <c r="H18" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7441</v>
       </c>
-      <c r="I18" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A18,OGGI,1)</f>
+      <c r="I18" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5316</v>
       </c>
     </row>
@@ -16058,23 +16036,23 @@
         <v>221</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2005</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="H19" s="72">
-        <f ca="1">OGGI-A19</f>
+      <c r="H19" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>6705</v>
       </c>
-      <c r="I19" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A19,OGGI,1)</f>
+      <c r="I19" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>4790</v>
       </c>
     </row>
@@ -16092,23 +16070,23 @@
         <v>56</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="H20" s="72">
-        <f ca="1">OGGI-A20</f>
+      <c r="H20" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7434</v>
       </c>
-      <c r="I20" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A20,OGGI,1)</f>
+      <c r="I20" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5311</v>
       </c>
     </row>
@@ -16126,23 +16104,23 @@
         <v>11</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="H21" s="72">
-        <f ca="1">OGGI-A21</f>
+      <c r="H21" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7432</v>
       </c>
-      <c r="I21" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A21,OGGI,1)</f>
+      <c r="I21" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5310</v>
       </c>
     </row>
@@ -16160,23 +16138,23 @@
         <v>25</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="H22" s="72">
-        <f ca="1">OGGI-A22</f>
+      <c r="H22" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7429</v>
       </c>
-      <c r="I22" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A22,OGGI,1)</f>
+      <c r="I22" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5308</v>
       </c>
     </row>
@@ -16194,23 +16172,23 @@
         <v>72.5</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2004</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H23" s="72">
-        <f ca="1">OGGI-A23</f>
+      <c r="H23" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7059</v>
       </c>
-      <c r="I23" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A23,OGGI,1)</f>
+      <c r="I23" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5044</v>
       </c>
     </row>
@@ -16228,23 +16206,23 @@
         <v>30</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="H24" s="72">
-        <f ca="1">OGGI-A24</f>
+      <c r="H24" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7422</v>
       </c>
-      <c r="I24" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A24,OGGI,1)</f>
+      <c r="I24" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5303</v>
       </c>
     </row>
@@ -16262,23 +16240,23 @@
         <v>51</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H25" s="72">
-        <f ca="1">OGGI-A25</f>
+      <c r="H25" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7417</v>
       </c>
-      <c r="I25" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A25,OGGI,1)</f>
+      <c r="I25" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5300</v>
       </c>
     </row>
@@ -16296,23 +16274,23 @@
         <v>14</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="H26" s="72">
-        <f ca="1">OGGI-A26</f>
+      <c r="H26" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7412</v>
       </c>
-      <c r="I26" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A26,OGGI,1)</f>
+      <c r="I26" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5295</v>
       </c>
     </row>
@@ -16330,23 +16308,23 @@
         <v>75</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2004</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="H27" s="72">
-        <f ca="1">OGGI-A27</f>
+      <c r="H27" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7042</v>
       </c>
-      <c r="I27" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A27,OGGI,1)</f>
+      <c r="I27" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5031</v>
       </c>
     </row>
@@ -16364,23 +16342,23 @@
         <v>270</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2008</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="H28" s="72">
-        <f ca="1">OGGI-A28</f>
+      <c r="H28" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>5579</v>
       </c>
-      <c r="I28" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A28,OGGI,1)</f>
+      <c r="I28" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>3986</v>
       </c>
     </row>
@@ -16398,23 +16376,23 @@
         <v>20</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H29" s="72">
-        <f ca="1">OGGI-A29</f>
+      <c r="H29" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>7402</v>
       </c>
-      <c r="I29" s="72">
-        <f ca="1">NETWORKDAYS.INTL(A29,OGGI,1)</f>
+      <c r="I29" s="62">
+        <f t="shared" ca="1" si="1"/>
         <v>5289</v>
       </c>
     </row>
